--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nws\Desktop\KWR001_SuaExcel\fix header\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\02.Work\04.Source\01.UK\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2858,6 +2858,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46440,21 +46449,20 @@
   </sheetPr>
   <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BF26" sqref="BF26"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="2" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="2" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -46552,7 +46560,7 @@
       <c r="AT2" s="25"/>
       <c r="AU2" s="25"/>
     </row>
-    <row r="3" spans="1:47" ht="13.5" customHeight="1">
+    <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -46601,7 +46609,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:47" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="1:47" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="46"/>
       <c r="B4" s="45"/>
       <c r="C4" s="46"/>
@@ -46680,7 +46688,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="5.7870370370370398E-2" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
@@ -46695,8 +46703,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:C56"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -46710,7 +46718,7 @@
     <col min="58" max="16384" width="1.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -46759,7 +46767,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="13"/>
     </row>
-    <row r="2" spans="1:50" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:50" ht="1.5" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -47719,8 +47727,8 @@
     </row>
     <row r="21" spans="1:50" ht="15" customHeight="1">
       <c r="A21" s="103"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="302"/>
       <c r="D21" s="274"/>
       <c r="E21" s="274"/>
       <c r="F21" s="274"/>
@@ -47771,8 +47779,8 @@
     </row>
     <row r="22" spans="1:50" ht="15" customHeight="1">
       <c r="A22" s="104"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
       <c r="D22" s="277"/>
       <c r="E22" s="277"/>
       <c r="F22" s="277"/>
@@ -47823,8 +47831,8 @@
     </row>
     <row r="23" spans="1:50" ht="15" customHeight="1">
       <c r="A23" s="273"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
+      <c r="B23" s="304"/>
+      <c r="C23" s="304"/>
       <c r="D23" s="279"/>
       <c r="E23" s="279"/>
       <c r="F23" s="279"/>
@@ -49122,7 +49130,7 @@
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
     </row>
-    <row r="49" spans="1:50" ht="9.75" customHeight="1">
+    <row r="49" spans="1:50" ht="15" customHeight="1">
       <c r="A49" s="293"/>
       <c r="B49" s="246"/>
       <c r="C49" s="246"/>
@@ -49174,7 +49182,7 @@
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
     </row>
-    <row r="50" spans="1:50" ht="9.75" customHeight="1">
+    <row r="50" spans="1:50" ht="15" customHeight="1">
       <c r="A50" s="136"/>
       <c r="B50" s="136"/>
       <c r="C50" s="172"/>
@@ -49226,7 +49234,7 @@
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
     </row>
-    <row r="51" spans="1:50" ht="9.75" customHeight="1">
+    <row r="51" spans="1:50" ht="15" customHeight="1">
       <c r="A51" s="173"/>
       <c r="B51" s="173"/>
       <c r="C51" s="174"/>
@@ -49278,7 +49286,7 @@
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
     </row>
-    <row r="52" spans="1:50" ht="9.75" customHeight="1">
+    <row r="52" spans="1:50" ht="15" customHeight="1">
       <c r="A52" s="175"/>
       <c r="B52" s="175"/>
       <c r="C52" s="176"/>
@@ -49330,7 +49338,7 @@
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
     </row>
-    <row r="53" spans="1:50" s="1" customFormat="1" ht="11.85" customHeight="1">
+    <row r="53" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="192"/>
       <c r="B53" s="192"/>
       <c r="C53" s="192"/>
@@ -49379,7 +49387,7 @@
       <c r="AT53" s="192"/>
       <c r="AU53" s="192"/>
     </row>
-    <row r="54" spans="1:50" ht="9.75" customHeight="1">
+    <row r="54" spans="1:50" ht="15" customHeight="1">
       <c r="A54" s="103"/>
       <c r="B54" s="106"/>
       <c r="C54" s="103"/>
@@ -49431,7 +49439,7 @@
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
     </row>
-    <row r="55" spans="1:50" ht="9.75" customHeight="1">
+    <row r="55" spans="1:50" ht="15" customHeight="1">
       <c r="A55" s="104"/>
       <c r="B55" s="107"/>
       <c r="C55" s="104"/>
@@ -49483,7 +49491,7 @@
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
     </row>
-    <row r="56" spans="1:50" ht="9.75" customHeight="1">
+    <row r="56" spans="1:50" ht="15" customHeight="1">
       <c r="A56" s="273"/>
       <c r="B56" s="108"/>
       <c r="C56" s="105"/>
@@ -49535,7 +49543,7 @@
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
     </row>
-    <row r="57" spans="1:50" ht="9.75" customHeight="1">
+    <row r="57" spans="1:50" ht="15" customHeight="1">
       <c r="A57" s="136"/>
       <c r="B57" s="136"/>
       <c r="C57" s="172"/>
@@ -49587,7 +49595,7 @@
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
     </row>
-    <row r="58" spans="1:50" ht="9.75" customHeight="1">
+    <row r="58" spans="1:50" ht="15" customHeight="1">
       <c r="A58" s="173"/>
       <c r="B58" s="173"/>
       <c r="C58" s="174"/>
@@ -49639,7 +49647,7 @@
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
     </row>
-    <row r="59" spans="1:50" ht="9.75" customHeight="1">
+    <row r="59" spans="1:50" ht="15" customHeight="1">
       <c r="A59" s="175"/>
       <c r="B59" s="175"/>
       <c r="C59" s="176"/>
@@ -49691,7 +49699,7 @@
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
     </row>
-    <row r="60" spans="1:50" ht="9.75" customHeight="1">
+    <row r="60" spans="1:50" ht="15" customHeight="1">
       <c r="A60" s="173"/>
       <c r="B60" s="189"/>
       <c r="C60" s="189"/>
@@ -49740,7 +49748,7 @@
       <c r="AT60" s="139"/>
       <c r="AU60" s="139"/>
     </row>
-    <row r="61" spans="1:50" ht="9.75" customHeight="1">
+    <row r="61" spans="1:50" ht="15" customHeight="1">
       <c r="A61" s="189"/>
       <c r="B61" s="189"/>
       <c r="C61" s="189"/>
@@ -49789,7 +49797,7 @@
       <c r="AT61" s="139"/>
       <c r="AU61" s="139"/>
     </row>
-    <row r="62" spans="1:50" ht="9.75" customHeight="1">
+    <row r="62" spans="1:50" ht="15" customHeight="1">
       <c r="A62" s="189"/>
       <c r="B62" s="189"/>
       <c r="C62" s="189"/>
@@ -49838,7 +49846,7 @@
       <c r="AT62" s="139"/>
       <c r="AU62" s="139"/>
     </row>
-    <row r="63" spans="1:50" ht="9.75" customHeight="1">
+    <row r="63" spans="1:50" ht="15" customHeight="1">
       <c r="A63" s="136"/>
       <c r="B63" s="263"/>
       <c r="C63" s="263"/>
@@ -49887,7 +49895,7 @@
       <c r="AT63" s="137"/>
       <c r="AU63" s="137"/>
     </row>
-    <row r="64" spans="1:50" ht="9.75" customHeight="1">
+    <row r="64" spans="1:50" ht="15" customHeight="1">
       <c r="A64" s="189"/>
       <c r="B64" s="189"/>
       <c r="C64" s="189"/>
@@ -49936,7 +49944,7 @@
       <c r="AT64" s="139"/>
       <c r="AU64" s="139"/>
     </row>
-    <row r="65" spans="1:50" ht="9.75" customHeight="1">
+    <row r="65" spans="1:50" ht="15" customHeight="1">
       <c r="A65" s="264"/>
       <c r="B65" s="264"/>
       <c r="C65" s="264"/>
@@ -49985,7 +49993,7 @@
       <c r="AT65" s="141"/>
       <c r="AU65" s="141"/>
     </row>
-    <row r="66" spans="1:50" ht="9.75" customHeight="1">
+    <row r="66" spans="1:50" ht="15" customHeight="1">
       <c r="A66" s="173"/>
       <c r="B66" s="189"/>
       <c r="C66" s="189"/>
@@ -50034,7 +50042,7 @@
       <c r="AT66" s="139"/>
       <c r="AU66" s="139"/>
     </row>
-    <row r="67" spans="1:50" ht="9.75" customHeight="1">
+    <row r="67" spans="1:50" ht="15" customHeight="1">
       <c r="A67" s="189"/>
       <c r="B67" s="189"/>
       <c r="C67" s="189"/>
@@ -50083,7 +50091,7 @@
       <c r="AT67" s="139"/>
       <c r="AU67" s="139"/>
     </row>
-    <row r="68" spans="1:50" ht="9.75" customHeight="1">
+    <row r="68" spans="1:50" ht="15" customHeight="1">
       <c r="A68" s="189"/>
       <c r="B68" s="189"/>
       <c r="C68" s="189"/>
@@ -50132,7 +50140,7 @@
       <c r="AT68" s="139"/>
       <c r="AU68" s="139"/>
     </row>
-    <row r="69" spans="1:50" ht="9.75" customHeight="1">
+    <row r="69" spans="1:50" ht="15" customHeight="1">
       <c r="A69" s="136"/>
       <c r="B69" s="136"/>
       <c r="C69" s="172"/>
@@ -50181,7 +50189,7 @@
       <c r="AT69" s="137"/>
       <c r="AU69" s="137"/>
     </row>
-    <row r="70" spans="1:50" ht="9.75" customHeight="1">
+    <row r="70" spans="1:50" ht="15" customHeight="1">
       <c r="A70" s="173"/>
       <c r="B70" s="173"/>
       <c r="C70" s="174"/>
@@ -50230,7 +50238,7 @@
       <c r="AT70" s="139"/>
       <c r="AU70" s="139"/>
     </row>
-    <row r="71" spans="1:50" ht="9.75" customHeight="1">
+    <row r="71" spans="1:50" ht="15" customHeight="1">
       <c r="A71" s="175"/>
       <c r="B71" s="175"/>
       <c r="C71" s="176"/>
@@ -50279,7 +50287,7 @@
       <c r="AT71" s="141"/>
       <c r="AU71" s="141"/>
     </row>
-    <row r="72" spans="1:50" ht="9.75" customHeight="1">
+    <row r="72" spans="1:50" ht="15" customHeight="1">
       <c r="A72" s="173"/>
       <c r="B72" s="173"/>
       <c r="C72" s="174"/>
@@ -50328,7 +50336,7 @@
       <c r="AT72" s="139"/>
       <c r="AU72" s="139"/>
     </row>
-    <row r="73" spans="1:50" ht="9.75" customHeight="1">
+    <row r="73" spans="1:50" ht="15" customHeight="1">
       <c r="A73" s="173"/>
       <c r="B73" s="173"/>
       <c r="C73" s="174"/>
@@ -50377,7 +50385,7 @@
       <c r="AT73" s="139"/>
       <c r="AU73" s="139"/>
     </row>
-    <row r="74" spans="1:50" ht="9.75" customHeight="1" thickBot="1">
+    <row r="74" spans="1:50" ht="15" customHeight="1" thickBot="1">
       <c r="A74" s="261"/>
       <c r="B74" s="261"/>
       <c r="C74" s="262"/>
@@ -50426,7 +50434,7 @@
       <c r="AT74" s="260"/>
       <c r="AU74" s="260"/>
     </row>
-    <row r="75" spans="1:50" ht="9.75" customHeight="1" thickTop="1">
+    <row r="75" spans="1:50" ht="15" customHeight="1" thickTop="1">
       <c r="A75" s="253"/>
       <c r="B75" s="253"/>
       <c r="C75" s="254"/>
@@ -50478,7 +50486,7 @@
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
     </row>
-    <row r="76" spans="1:50" ht="9.75" customHeight="1">
+    <row r="76" spans="1:50" ht="15" customHeight="1">
       <c r="A76" s="173"/>
       <c r="B76" s="173"/>
       <c r="C76" s="174"/>
@@ -50530,7 +50538,7 @@
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
     </row>
-    <row r="77" spans="1:50" ht="9.75" customHeight="1">
+    <row r="77" spans="1:50" ht="15" customHeight="1">
       <c r="A77" s="175"/>
       <c r="B77" s="175"/>
       <c r="C77" s="176"/>
@@ -52033,22 +52041,20 @@
   </sheetPr>
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="85" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24:AB24"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.85546875" style="2" customWidth="1"/>
-    <col min="4" max="43" width="2.7109375" style="2" customWidth="1"/>
-    <col min="44" max="46" width="3.140625" style="2"/>
-    <col min="47" max="47" width="3.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -52089,7 +52095,7 @@
       <c r="AL1" s="56"/>
       <c r="AM1" s="26"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -52134,7 +52140,7 @@
       <c r="AP2" s="27"/>
       <c r="AQ2" s="27"/>
     </row>
-    <row r="3" spans="1:47" ht="13.5" customHeight="1">
+    <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -52183,7 +52189,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:47" ht="13.5" customHeight="1">
+    <row r="4" spans="1:47" ht="15" customHeight="1">
       <c r="A4" s="57"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52"/>
@@ -52232,7 +52238,7 @@
       <c r="AT4" s="59"/>
       <c r="AU4" s="59"/>
     </row>
-    <row r="5" spans="1:47" ht="13.5" customHeight="1">
+    <row r="5" spans="1:47" ht="15" customHeight="1">
       <c r="A5" s="57"/>
       <c r="B5" s="51"/>
       <c r="C5" s="52"/>
@@ -52281,7 +52287,7 @@
       <c r="AT5" s="59"/>
       <c r="AU5" s="59"/>
     </row>
-    <row r="6" spans="1:47" ht="13.5" customHeight="1" thickBot="1">
+    <row r="6" spans="1:47" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="58"/>
       <c r="B6" s="45"/>
       <c r="C6" s="46"/>
@@ -52380,7 +52386,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
@@ -52395,20 +52401,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="BP22" sqref="BP22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="2" customWidth="1"/>
-    <col min="4" max="47" width="2.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="47" width="3" style="2" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -52457,7 +52463,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="8"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -52868,7 +52874,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Bold"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　
@@ -52884,12 +52890,12 @@
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="CB28" sqref="CB28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
     <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
     <col min="4" max="43" width="3" style="2" customWidth="1"/>
@@ -52899,7 +52905,7 @@
     <col min="58" max="16384" width="1.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -52948,7 +52954,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="16"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -52997,7 +53003,7 @@
       <c r="AT2" s="17"/>
       <c r="AU2" s="17"/>
     </row>
-    <row r="3" spans="1:47" ht="14.1" customHeight="1">
+    <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="49"/>
       <c r="B3" s="43"/>
       <c r="C3" s="67"/>
@@ -53046,7 +53052,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:47" ht="9.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:47" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="63"/>
       <c r="B4" s="62"/>
       <c r="C4" s="68"/>
@@ -53123,7 +53129,7 @@
     <mergeCell ref="AB3:AC4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表&amp;R&amp;"ＭＳ ゴシック,標準"&amp;D　&amp;T　
@@ -53139,22 +53145,21 @@
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="BO14" sqref="BO14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="43" width="3" style="2" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="47" width="3" style="2" customWidth="1"/>
     <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
     <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
     <col min="58" max="16384" width="1.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -53203,7 +53208,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="16"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -53496,7 +53501,7 @@
     <mergeCell ref="AH3:AI4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表&amp;R&amp;"ＭＳ ゴシック,標準"&amp;D　&amp;T　
@@ -53511,23 +53516,22 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="BL13" sqref="BL13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="BD28" sqref="BD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="43" width="3" style="2" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="47" width="3" style="2" customWidth="1"/>
     <col min="48" max="49" width="3.28515625" style="2" customWidth="1"/>
     <col min="50" max="57" width="2.42578125" style="2" customWidth="1"/>
     <col min="58" max="16384" width="1.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -53576,7 +53580,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="8"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -53988,7 +53992,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表</oddHeader>
@@ -54002,21 +54006,20 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AU37"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" zoomScale="115" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B16"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="43" width="3" style="2" customWidth="1"/>
-    <col min="44" max="47" width="3.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="47" width="3" style="2" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -54065,7 +54068,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="9"/>
     </row>
-    <row r="2" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="2" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -56009,21 +56012,20 @@
   </sheetPr>
   <dimension ref="A1:AU74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
-    <col min="4" max="43" width="3.28515625" style="2" customWidth="1"/>
-    <col min="44" max="47" width="3.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.85546875" style="2" customWidth="1"/>
+    <col min="4" max="47" width="3" style="2" customWidth="1"/>
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
@@ -56074,7 +56076,7 @@
       <c r="AT1" s="181"/>
       <c r="AU1" s="22"/>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="53"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -56125,7 +56127,7 @@
       <c r="AT2" s="185"/>
       <c r="AU2" s="22"/>
     </row>
-    <row r="3" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -58133,7 +58135,7 @@
       <c r="AT43" s="151"/>
       <c r="AU43" s="151"/>
     </row>
-    <row r="44" spans="1:47" ht="9.75" customHeight="1">
+    <row r="44" spans="1:47" ht="15" customHeight="1">
       <c r="A44" s="139"/>
       <c r="B44" s="139"/>
       <c r="C44" s="140"/>
@@ -58182,7 +58184,7 @@
       <c r="AT44" s="151"/>
       <c r="AU44" s="151"/>
     </row>
-    <row r="45" spans="1:47" ht="9.75" customHeight="1">
+    <row r="45" spans="1:47" ht="15" customHeight="1">
       <c r="A45" s="136"/>
       <c r="B45" s="137"/>
       <c r="C45" s="138"/>
@@ -58231,7 +58233,7 @@
       <c r="AT45" s="148"/>
       <c r="AU45" s="148"/>
     </row>
-    <row r="46" spans="1:47" ht="9.75" customHeight="1">
+    <row r="46" spans="1:47" ht="15" customHeight="1">
       <c r="A46" s="141"/>
       <c r="B46" s="141"/>
       <c r="C46" s="142"/>
@@ -58280,7 +58282,7 @@
       <c r="AT46" s="155"/>
       <c r="AU46" s="155"/>
     </row>
-    <row r="47" spans="1:47" ht="9.75" customHeight="1">
+    <row r="47" spans="1:47" ht="15" customHeight="1">
       <c r="A47" s="173"/>
       <c r="B47" s="139"/>
       <c r="C47" s="140"/>
@@ -58329,7 +58331,7 @@
       <c r="AT47" s="151"/>
       <c r="AU47" s="151"/>
     </row>
-    <row r="48" spans="1:47" ht="9.75" customHeight="1">
+    <row r="48" spans="1:47" ht="15" customHeight="1">
       <c r="A48" s="139"/>
       <c r="B48" s="139"/>
       <c r="C48" s="140"/>
@@ -58378,7 +58380,7 @@
       <c r="AT48" s="151"/>
       <c r="AU48" s="151"/>
     </row>
-    <row r="49" spans="1:47" ht="9.75" customHeight="1">
+    <row r="49" spans="1:47" ht="15" customHeight="1">
       <c r="A49" s="139"/>
       <c r="B49" s="139"/>
       <c r="C49" s="140"/>
@@ -58427,7 +58429,7 @@
       <c r="AT49" s="151"/>
       <c r="AU49" s="151"/>
     </row>
-    <row r="50" spans="1:47" ht="9.75" customHeight="1">
+    <row r="50" spans="1:47" ht="15" customHeight="1">
       <c r="A50" s="136"/>
       <c r="B50" s="137"/>
       <c r="C50" s="138"/>
@@ -58476,7 +58478,7 @@
       <c r="AT50" s="148"/>
       <c r="AU50" s="148"/>
     </row>
-    <row r="51" spans="1:47" ht="9.75" customHeight="1">
+    <row r="51" spans="1:47" ht="15" customHeight="1">
       <c r="A51" s="139"/>
       <c r="B51" s="139"/>
       <c r="C51" s="140"/>
@@ -58525,7 +58527,7 @@
       <c r="AT51" s="151"/>
       <c r="AU51" s="151"/>
     </row>
-    <row r="52" spans="1:47" ht="9.75" customHeight="1">
+    <row r="52" spans="1:47" ht="15" customHeight="1">
       <c r="A52" s="141"/>
       <c r="B52" s="141"/>
       <c r="C52" s="142"/>
@@ -58574,7 +58576,7 @@
       <c r="AT52" s="155"/>
       <c r="AU52" s="155"/>
     </row>
-    <row r="53" spans="1:47" ht="9.75" customHeight="1">
+    <row r="53" spans="1:47" ht="15" customHeight="1">
       <c r="A53" s="136"/>
       <c r="B53" s="137"/>
       <c r="C53" s="138"/>
@@ -58623,7 +58625,7 @@
       <c r="AT53" s="148"/>
       <c r="AU53" s="148"/>
     </row>
-    <row r="54" spans="1:47" ht="9.75" customHeight="1">
+    <row r="54" spans="1:47" ht="15" customHeight="1">
       <c r="A54" s="139"/>
       <c r="B54" s="139"/>
       <c r="C54" s="140"/>
@@ -58672,7 +58674,7 @@
       <c r="AT54" s="151"/>
       <c r="AU54" s="151"/>
     </row>
-    <row r="55" spans="1:47" ht="9.75" customHeight="1">
+    <row r="55" spans="1:47" ht="15" customHeight="1">
       <c r="A55" s="141"/>
       <c r="B55" s="141"/>
       <c r="C55" s="142"/>
@@ -58721,7 +58723,7 @@
       <c r="AT55" s="155"/>
       <c r="AU55" s="155"/>
     </row>
-    <row r="56" spans="1:47" ht="9.75" customHeight="1">
+    <row r="56" spans="1:47" ht="15" customHeight="1">
       <c r="A56" s="136"/>
       <c r="B56" s="137"/>
       <c r="C56" s="138"/>
@@ -58770,7 +58772,7 @@
       <c r="AT56" s="148"/>
       <c r="AU56" s="148"/>
     </row>
-    <row r="57" spans="1:47" ht="9.75" customHeight="1">
+    <row r="57" spans="1:47" ht="15" customHeight="1">
       <c r="A57" s="139"/>
       <c r="B57" s="139"/>
       <c r="C57" s="140"/>
@@ -58819,7 +58821,7 @@
       <c r="AT57" s="151"/>
       <c r="AU57" s="151"/>
     </row>
-    <row r="58" spans="1:47" ht="9.75" customHeight="1">
+    <row r="58" spans="1:47" ht="15" customHeight="1">
       <c r="A58" s="141"/>
       <c r="B58" s="141"/>
       <c r="C58" s="142"/>
@@ -58868,7 +58870,7 @@
       <c r="AT58" s="155"/>
       <c r="AU58" s="155"/>
     </row>
-    <row r="59" spans="1:47" ht="9.75" customHeight="1">
+    <row r="59" spans="1:47" ht="15" customHeight="1">
       <c r="A59" s="136"/>
       <c r="B59" s="137"/>
       <c r="C59" s="138"/>
@@ -58917,7 +58919,7 @@
       <c r="AT59" s="148"/>
       <c r="AU59" s="148"/>
     </row>
-    <row r="60" spans="1:47" ht="9.75" customHeight="1">
+    <row r="60" spans="1:47" ht="15" customHeight="1">
       <c r="A60" s="139"/>
       <c r="B60" s="139"/>
       <c r="C60" s="140"/>
@@ -58966,7 +58968,7 @@
       <c r="AT60" s="151"/>
       <c r="AU60" s="151"/>
     </row>
-    <row r="61" spans="1:47" ht="9.75" customHeight="1">
+    <row r="61" spans="1:47" ht="15" customHeight="1">
       <c r="A61" s="141"/>
       <c r="B61" s="141"/>
       <c r="C61" s="142"/>
@@ -59015,7 +59017,7 @@
       <c r="AT61" s="155"/>
       <c r="AU61" s="155"/>
     </row>
-    <row r="62" spans="1:47" ht="9.75" customHeight="1">
+    <row r="62" spans="1:47" ht="15" customHeight="1">
       <c r="A62" s="173"/>
       <c r="B62" s="139"/>
       <c r="C62" s="140"/>
@@ -59064,7 +59066,7 @@
       <c r="AT62" s="151"/>
       <c r="AU62" s="151"/>
     </row>
-    <row r="63" spans="1:47" ht="9.75" customHeight="1">
+    <row r="63" spans="1:47" ht="15" customHeight="1">
       <c r="A63" s="139"/>
       <c r="B63" s="139"/>
       <c r="C63" s="140"/>
@@ -59113,7 +59115,7 @@
       <c r="AT63" s="151"/>
       <c r="AU63" s="151"/>
     </row>
-    <row r="64" spans="1:47" ht="9.75" customHeight="1">
+    <row r="64" spans="1:47" ht="15" customHeight="1">
       <c r="A64" s="139"/>
       <c r="B64" s="139"/>
       <c r="C64" s="140"/>
@@ -59162,7 +59164,7 @@
       <c r="AT64" s="151"/>
       <c r="AU64" s="151"/>
     </row>
-    <row r="65" spans="1:47" ht="9.75" customHeight="1">
+    <row r="65" spans="1:47" ht="15" customHeight="1">
       <c r="A65" s="136"/>
       <c r="B65" s="137"/>
       <c r="C65" s="138"/>
@@ -59211,7 +59213,7 @@
       <c r="AT65" s="148"/>
       <c r="AU65" s="148"/>
     </row>
-    <row r="66" spans="1:47" ht="9.75" customHeight="1">
+    <row r="66" spans="1:47" ht="15" customHeight="1">
       <c r="A66" s="139"/>
       <c r="B66" s="139"/>
       <c r="C66" s="140"/>
@@ -59260,7 +59262,7 @@
       <c r="AT66" s="151"/>
       <c r="AU66" s="151"/>
     </row>
-    <row r="67" spans="1:47" ht="9.75" customHeight="1">
+    <row r="67" spans="1:47" ht="15" customHeight="1">
       <c r="A67" s="141"/>
       <c r="B67" s="141"/>
       <c r="C67" s="142"/>
@@ -60548,7 +60550,7 @@
     <mergeCell ref="F11:G11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.1" header="0.39370078740157499" footer="0.1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C
@@ -60567,7 +60569,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:AU7"/>
+      <selection activeCell="B25" sqref="B25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="15" customHeight="1"/>
@@ -60579,7 +60581,7 @@
     <col min="48" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="48"/>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -60630,7 +60632,7 @@
       <c r="AT1" s="205"/>
       <c r="AU1" s="12"/>
     </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" ht="19.5" customHeight="1">
+    <row r="2" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="48"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
@@ -60681,7 +60683,7 @@
       <c r="AT2" s="210"/>
       <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="1:47" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A61693A-54B8-4615-A9DE-1D26E87A8F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E301065-E2E8-416A-8B76-3234032E3DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="★日別勤務表-個人1行" sheetId="10" r:id="rId1"/>
@@ -1958,7 +1958,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2877,6 +2877,9 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46460,7 +46463,7 @@
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:AQ1048576"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.5" customHeight="1"/>
@@ -46714,8 +46717,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AX77"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:AQ1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13:AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -47073,103 +47076,103 @@
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
     </row>
-    <row r="8" spans="1:50" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
+    <row r="8" spans="1:50" ht="15" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="175"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="175"/>
-      <c r="AK9" s="175"/>
-      <c r="AL9" s="175"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="175"/>
-      <c r="AO9" s="175"/>
-      <c r="AP9" s="175"/>
-      <c r="AQ9" s="175"/>
-      <c r="AR9" s="175"/>
-      <c r="AS9" s="175"/>
-      <c r="AT9" s="175"/>
-      <c r="AU9" s="175"/>
+      <c r="A9" s="306"/>
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="306"/>
+      <c r="N9" s="306"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="306"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="306"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="306"/>
+      <c r="Z9" s="306"/>
+      <c r="AA9" s="306"/>
+      <c r="AB9" s="306"/>
+      <c r="AC9" s="306"/>
+      <c r="AD9" s="306"/>
+      <c r="AE9" s="306"/>
+      <c r="AF9" s="306"/>
+      <c r="AG9" s="306"/>
+      <c r="AH9" s="306"/>
+      <c r="AI9" s="306"/>
+      <c r="AJ9" s="306"/>
+      <c r="AK9" s="306"/>
+      <c r="AL9" s="306"/>
+      <c r="AM9" s="306"/>
+      <c r="AN9" s="306"/>
+      <c r="AO9" s="306"/>
+      <c r="AP9" s="306"/>
+      <c r="AQ9" s="306"/>
+      <c r="AR9" s="306"/>
+      <c r="AS9" s="306"/>
+      <c r="AT9" s="306"/>
+      <c r="AU9" s="306"/>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="176"/>
@@ -52032,7 +52035,7 @@
     <mergeCell ref="L76:M76"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"ＭＳ ゴシック,標準 Bold"&amp;16日別勤務表&amp;R&amp;"ＭＳ ゴシック,標準"&amp;D　&amp;T　
@@ -52054,7 +52057,7 @@
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -52414,7 +52417,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
@@ -52904,7 +52907,7 @@
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -53158,7 +53161,7 @@
   <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -53530,7 +53533,7 @@
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AP22" sqref="AP22"/>
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -54020,7 +54023,7 @@
   <dimension ref="A1:AU37"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7:AI8"/>
+      <selection activeCell="AD22" sqref="AD22:AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -54375,103 +54378,103 @@
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
     </row>
-    <row r="8" spans="1:47" ht="9.9" customHeight="1" thickBot="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="46"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="46"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="46"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="46"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="46"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="65"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
+    <row r="8" spans="1:47" ht="9.9" customHeight="1">
+      <c r="A8" s="64"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
     </row>
     <row r="9" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="175"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
-      <c r="W9" s="175"/>
-      <c r="X9" s="175"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="175"/>
-      <c r="AA9" s="175"/>
-      <c r="AB9" s="175"/>
-      <c r="AC9" s="175"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="175"/>
-      <c r="AH9" s="175"/>
-      <c r="AI9" s="175"/>
-      <c r="AJ9" s="175"/>
-      <c r="AK9" s="175"/>
-      <c r="AL9" s="175"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="175"/>
-      <c r="AO9" s="175"/>
-      <c r="AP9" s="175"/>
-      <c r="AQ9" s="175"/>
-      <c r="AR9" s="175"/>
-      <c r="AS9" s="175"/>
-      <c r="AT9" s="175"/>
-      <c r="AU9" s="175"/>
+      <c r="A9" s="306"/>
+      <c r="B9" s="306"/>
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="306"/>
+      <c r="K9" s="306"/>
+      <c r="L9" s="306"/>
+      <c r="M9" s="306"/>
+      <c r="N9" s="306"/>
+      <c r="O9" s="306"/>
+      <c r="P9" s="306"/>
+      <c r="Q9" s="306"/>
+      <c r="R9" s="306"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="306"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="306"/>
+      <c r="X9" s="306"/>
+      <c r="Y9" s="306"/>
+      <c r="Z9" s="306"/>
+      <c r="AA9" s="306"/>
+      <c r="AB9" s="306"/>
+      <c r="AC9" s="306"/>
+      <c r="AD9" s="306"/>
+      <c r="AE9" s="306"/>
+      <c r="AF9" s="306"/>
+      <c r="AG9" s="306"/>
+      <c r="AH9" s="306"/>
+      <c r="AI9" s="306"/>
+      <c r="AJ9" s="306"/>
+      <c r="AK9" s="306"/>
+      <c r="AL9" s="306"/>
+      <c r="AM9" s="306"/>
+      <c r="AN9" s="306"/>
+      <c r="AO9" s="306"/>
+      <c r="AP9" s="306"/>
+      <c r="AQ9" s="306"/>
+      <c r="AR9" s="306"/>
+      <c r="AS9" s="306"/>
+      <c r="AT9" s="306"/>
+      <c r="AU9" s="306"/>
     </row>
     <row r="10" spans="1:47" ht="15" customHeight="1">
       <c r="A10" s="176"/>
@@ -56008,7 +56011,7 @@
     <mergeCell ref="L27:M27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C
@@ -56027,7 +56030,7 @@
   <dimension ref="A1:AU74"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AU21"/>
+      <selection activeCell="AH10" sqref="AH10:AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -60583,7 +60586,7 @@
   <dimension ref="A1:AU44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18:U18"/>
+      <selection activeCell="AH10" sqref="AH10:AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
@@ -63003,7 +63006,7 @@
     <mergeCell ref="L37:M37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.59055118110236215" header="0.39370078740157483" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"源ノ角ゴシック Normal,Regular"&amp;16日別勤務表&amp;R&amp;"源ノ角ゴシック Normal,Regular"&amp;D　&amp;T　

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR001_Employee_Small_Size.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK_clone\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E301065-E2E8-416A-8B76-3234032E3DE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC2C995-8220-4A2C-A0D3-84D6DA0DC3E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2484,7 +2484,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,6 +2563,9 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,9 +2880,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46460,13 +46460,13 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -46672,6 +46672,8 @@
       <c r="AT4" s="50"/>
       <c r="AU4" s="50"/>
     </row>
+    <row r="5" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="6" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="B3:C4"/>
@@ -46718,10 +46720,10 @@
   <dimension ref="A1:AX77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13:AI13"/>
+      <selection activeCell="A10" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -47125,56 +47127,56 @@
       <c r="AT8" s="69"/>
       <c r="AU8" s="69"/>
     </row>
-    <row r="9" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="306"/>
-      <c r="B9" s="306"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="306"/>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="306"/>
-      <c r="AF9" s="306"/>
-      <c r="AG9" s="306"/>
-      <c r="AH9" s="306"/>
-      <c r="AI9" s="306"/>
-      <c r="AJ9" s="306"/>
-      <c r="AK9" s="306"/>
-      <c r="AL9" s="306"/>
-      <c r="AM9" s="306"/>
-      <c r="AN9" s="306"/>
-      <c r="AO9" s="306"/>
-      <c r="AP9" s="306"/>
-      <c r="AQ9" s="306"/>
-      <c r="AR9" s="306"/>
-      <c r="AS9" s="306"/>
-      <c r="AT9" s="306"/>
-      <c r="AU9" s="306"/>
+    <row r="9" spans="1:50" s="1" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A9" s="175"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="175"/>
+      <c r="AQ9" s="175"/>
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
     </row>
-    <row r="10" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:50" s="1" customFormat="1" ht="13.8" customHeight="1">
       <c r="A10" s="176"/>
       <c r="B10" s="176"/>
       <c r="C10" s="176"/>
@@ -47223,28 +47225,28 @@
       <c r="AT10" s="176"/>
       <c r="AU10" s="176"/>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1">
+    <row r="11" spans="1:50" ht="11.4" customHeight="1">
       <c r="A11" s="123"/>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="251"/>
-      <c r="M11" s="251"/>
-      <c r="N11" s="251"/>
-      <c r="O11" s="251"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="258"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="252"/>
+      <c r="O11" s="252"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="259"/>
       <c r="R11" s="136"/>
       <c r="S11" s="137"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="259"/>
       <c r="V11" s="136"/>
       <c r="W11" s="137"/>
       <c r="X11" s="136"/>
@@ -47275,49 +47277,49 @@
       <c r="AW11" s="3"/>
       <c r="AX11" s="3"/>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1">
+    <row r="12" spans="1:50" ht="11.4" customHeight="1">
       <c r="A12" s="124"/>
       <c r="B12" s="127"/>
       <c r="C12" s="127"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="252"/>
-      <c r="H12" s="252"/>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="264"/>
-      <c r="R12" s="259"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="264"/>
+      <c r="Q12" s="265"/>
+      <c r="R12" s="260"/>
       <c r="S12" s="145"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="264"/>
-      <c r="V12" s="259"/>
+      <c r="T12" s="264"/>
+      <c r="U12" s="265"/>
+      <c r="V12" s="260"/>
       <c r="W12" s="145"/>
-      <c r="X12" s="259"/>
+      <c r="X12" s="260"/>
       <c r="Y12" s="145"/>
-      <c r="Z12" s="259"/>
+      <c r="Z12" s="260"/>
       <c r="AA12" s="145"/>
-      <c r="AB12" s="259"/>
+      <c r="AB12" s="260"/>
       <c r="AC12" s="145"/>
-      <c r="AD12" s="259"/>
+      <c r="AD12" s="260"/>
       <c r="AE12" s="145"/>
-      <c r="AF12" s="259"/>
+      <c r="AF12" s="260"/>
       <c r="AG12" s="145"/>
-      <c r="AH12" s="259"/>
+      <c r="AH12" s="260"/>
       <c r="AI12" s="145"/>
-      <c r="AJ12" s="259"/>
+      <c r="AJ12" s="260"/>
       <c r="AK12" s="145"/>
-      <c r="AL12" s="259"/>
+      <c r="AL12" s="260"/>
       <c r="AM12" s="145"/>
-      <c r="AN12" s="259"/>
+      <c r="AN12" s="260"/>
       <c r="AO12" s="145"/>
-      <c r="AP12" s="259"/>
+      <c r="AP12" s="260"/>
       <c r="AQ12" s="145"/>
       <c r="AR12" s="130"/>
       <c r="AS12" s="131"/>
@@ -47327,49 +47329,49 @@
       <c r="AW12" s="3"/>
       <c r="AX12" s="3"/>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1">
-      <c r="A13" s="256"/>
+    <row r="13" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A13" s="257"/>
       <c r="B13" s="167"/>
       <c r="C13" s="167"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="260"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="262"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="262"/>
+      <c r="R13" s="263"/>
       <c r="S13" s="143"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="262"/>
+      <c r="T13" s="261"/>
+      <c r="U13" s="262"/>
+      <c r="V13" s="263"/>
       <c r="W13" s="143"/>
-      <c r="X13" s="262"/>
+      <c r="X13" s="263"/>
       <c r="Y13" s="143"/>
-      <c r="Z13" s="262"/>
+      <c r="Z13" s="263"/>
       <c r="AA13" s="143"/>
-      <c r="AB13" s="262"/>
+      <c r="AB13" s="263"/>
       <c r="AC13" s="143"/>
-      <c r="AD13" s="262"/>
+      <c r="AD13" s="263"/>
       <c r="AE13" s="143"/>
-      <c r="AF13" s="262"/>
+      <c r="AF13" s="263"/>
       <c r="AG13" s="143"/>
-      <c r="AH13" s="262"/>
+      <c r="AH13" s="263"/>
       <c r="AI13" s="143"/>
-      <c r="AJ13" s="262"/>
+      <c r="AJ13" s="263"/>
       <c r="AK13" s="143"/>
-      <c r="AL13" s="262"/>
+      <c r="AL13" s="263"/>
       <c r="AM13" s="143"/>
-      <c r="AN13" s="262"/>
+      <c r="AN13" s="263"/>
       <c r="AO13" s="143"/>
-      <c r="AP13" s="262"/>
+      <c r="AP13" s="263"/>
       <c r="AQ13" s="143"/>
       <c r="AR13" s="173"/>
       <c r="AS13" s="174"/>
@@ -47379,28 +47381,28 @@
       <c r="AW13" s="3"/>
       <c r="AX13" s="3"/>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1">
+    <row r="14" spans="1:50" ht="11.4" customHeight="1">
       <c r="A14" s="159"/>
       <c r="B14" s="161"/>
       <c r="C14" s="161"/>
-      <c r="D14" s="254"/>
-      <c r="E14" s="254"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="254"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="254"/>
-      <c r="N14" s="254"/>
-      <c r="O14" s="254"/>
-      <c r="P14" s="266"/>
-      <c r="Q14" s="267"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="255"/>
+      <c r="G14" s="255"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="255"/>
+      <c r="N14" s="255"/>
+      <c r="O14" s="255"/>
+      <c r="P14" s="267"/>
+      <c r="Q14" s="268"/>
       <c r="R14" s="155"/>
       <c r="S14" s="156"/>
-      <c r="T14" s="266"/>
-      <c r="U14" s="267"/>
+      <c r="T14" s="267"/>
+      <c r="U14" s="268"/>
       <c r="V14" s="155"/>
       <c r="W14" s="156"/>
       <c r="X14" s="155"/>
@@ -47431,50 +47433,50 @@
       <c r="AW14" s="3"/>
       <c r="AX14" s="3"/>
     </row>
-    <row r="15" spans="1:50" ht="15" customHeight="1">
+    <row r="15" spans="1:50" ht="11.4" customHeight="1">
       <c r="A15" s="159"/>
       <c r="B15" s="162"/>
       <c r="C15" s="162"/>
-      <c r="D15" s="255"/>
-      <c r="E15" s="255"/>
-      <c r="F15" s="255"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="255"/>
-      <c r="K15" s="255"/>
-      <c r="L15" s="255"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="255"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="273"/>
-      <c r="Q15" s="274"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="274"/>
+      <c r="Q15" s="275"/>
       <c r="R15" s="144"/>
-      <c r="S15" s="268"/>
-      <c r="T15" s="273"/>
-      <c r="U15" s="274"/>
+      <c r="S15" s="269"/>
+      <c r="T15" s="274"/>
+      <c r="U15" s="275"/>
       <c r="V15" s="144"/>
-      <c r="W15" s="268"/>
+      <c r="W15" s="269"/>
       <c r="X15" s="144"/>
-      <c r="Y15" s="268"/>
+      <c r="Y15" s="269"/>
       <c r="Z15" s="144"/>
-      <c r="AA15" s="268"/>
+      <c r="AA15" s="269"/>
       <c r="AB15" s="144"/>
-      <c r="AC15" s="268"/>
+      <c r="AC15" s="269"/>
       <c r="AD15" s="144"/>
-      <c r="AE15" s="268"/>
+      <c r="AE15" s="269"/>
       <c r="AF15" s="144"/>
-      <c r="AG15" s="268"/>
+      <c r="AG15" s="269"/>
       <c r="AH15" s="144"/>
-      <c r="AI15" s="268"/>
+      <c r="AI15" s="269"/>
       <c r="AJ15" s="144"/>
-      <c r="AK15" s="268"/>
+      <c r="AK15" s="269"/>
       <c r="AL15" s="144"/>
-      <c r="AM15" s="268"/>
+      <c r="AM15" s="269"/>
       <c r="AN15" s="144"/>
-      <c r="AO15" s="268"/>
+      <c r="AO15" s="269"/>
       <c r="AP15" s="144"/>
-      <c r="AQ15" s="268"/>
+      <c r="AQ15" s="269"/>
       <c r="AR15" s="138"/>
       <c r="AS15" s="139"/>
       <c r="AT15" s="139"/>
@@ -47483,50 +47485,50 @@
       <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
     </row>
-    <row r="16" spans="1:50" ht="15" customHeight="1">
-      <c r="A16" s="265"/>
-      <c r="B16" s="305"/>
-      <c r="C16" s="305"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="250"/>
-      <c r="P16" s="269"/>
-      <c r="Q16" s="270"/>
-      <c r="R16" s="271"/>
-      <c r="S16" s="272"/>
-      <c r="T16" s="269"/>
-      <c r="U16" s="270"/>
-      <c r="V16" s="271"/>
-      <c r="W16" s="272"/>
-      <c r="X16" s="271"/>
-      <c r="Y16" s="272"/>
-      <c r="Z16" s="271"/>
-      <c r="AA16" s="272"/>
-      <c r="AB16" s="271"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="271"/>
-      <c r="AE16" s="272"/>
-      <c r="AF16" s="271"/>
-      <c r="AG16" s="272"/>
-      <c r="AH16" s="271"/>
-      <c r="AI16" s="272"/>
-      <c r="AJ16" s="271"/>
-      <c r="AK16" s="272"/>
-      <c r="AL16" s="271"/>
-      <c r="AM16" s="272"/>
-      <c r="AN16" s="271"/>
-      <c r="AO16" s="272"/>
-      <c r="AP16" s="271"/>
-      <c r="AQ16" s="272"/>
+    <row r="16" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A16" s="266"/>
+      <c r="B16" s="306"/>
+      <c r="C16" s="306"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="251"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="251"/>
+      <c r="K16" s="251"/>
+      <c r="L16" s="251"/>
+      <c r="M16" s="251"/>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="271"/>
+      <c r="R16" s="272"/>
+      <c r="S16" s="273"/>
+      <c r="T16" s="270"/>
+      <c r="U16" s="271"/>
+      <c r="V16" s="272"/>
+      <c r="W16" s="273"/>
+      <c r="X16" s="272"/>
+      <c r="Y16" s="273"/>
+      <c r="Z16" s="272"/>
+      <c r="AA16" s="273"/>
+      <c r="AB16" s="272"/>
+      <c r="AC16" s="273"/>
+      <c r="AD16" s="272"/>
+      <c r="AE16" s="273"/>
+      <c r="AF16" s="272"/>
+      <c r="AG16" s="273"/>
+      <c r="AH16" s="272"/>
+      <c r="AI16" s="273"/>
+      <c r="AJ16" s="272"/>
+      <c r="AK16" s="273"/>
+      <c r="AL16" s="272"/>
+      <c r="AM16" s="273"/>
+      <c r="AN16" s="272"/>
+      <c r="AO16" s="273"/>
+      <c r="AP16" s="272"/>
+      <c r="AQ16" s="273"/>
       <c r="AR16" s="138"/>
       <c r="AS16" s="139"/>
       <c r="AT16" s="139"/>
@@ -47535,7 +47537,7 @@
       <c r="AW16" s="3"/>
       <c r="AX16" s="3"/>
     </row>
-    <row r="17" spans="1:50" ht="15" customHeight="1">
+    <row r="17" spans="1:50" ht="11.4" customHeight="1">
       <c r="A17" s="96"/>
       <c r="B17" s="96"/>
       <c r="C17" s="97"/>
@@ -47580,14 +47582,14 @@
       <c r="AP17" s="120"/>
       <c r="AQ17" s="120"/>
       <c r="AR17" s="73"/>
-      <c r="AS17" s="275"/>
-      <c r="AT17" s="276"/>
-      <c r="AU17" s="276"/>
+      <c r="AS17" s="276"/>
+      <c r="AT17" s="277"/>
+      <c r="AU17" s="277"/>
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
       <c r="AX17" s="3"/>
     </row>
-    <row r="18" spans="1:50" ht="15" customHeight="1">
+    <row r="18" spans="1:50" ht="11.4" customHeight="1">
       <c r="A18" s="98"/>
       <c r="B18" s="98"/>
       <c r="C18" s="99"/>
@@ -47632,14 +47634,14 @@
       <c r="AP18" s="119"/>
       <c r="AQ18" s="119"/>
       <c r="AR18" s="75"/>
-      <c r="AS18" s="279"/>
-      <c r="AT18" s="280"/>
-      <c r="AU18" s="280"/>
+      <c r="AS18" s="280"/>
+      <c r="AT18" s="281"/>
+      <c r="AU18" s="281"/>
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
       <c r="AX18" s="3"/>
     </row>
-    <row r="19" spans="1:50" ht="15" customHeight="1">
+    <row r="19" spans="1:50" ht="11.4" customHeight="1">
       <c r="A19" s="100"/>
       <c r="B19" s="100"/>
       <c r="C19" s="101"/>
@@ -47684,14 +47686,14 @@
       <c r="AP19" s="118"/>
       <c r="AQ19" s="118"/>
       <c r="AR19" s="77"/>
-      <c r="AS19" s="277"/>
-      <c r="AT19" s="278"/>
-      <c r="AU19" s="278"/>
+      <c r="AS19" s="278"/>
+      <c r="AT19" s="279"/>
+      <c r="AU19" s="279"/>
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
       <c r="AX19" s="3"/>
     </row>
-    <row r="20" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:50" s="1" customFormat="1" ht="11.4" customHeight="1">
       <c r="A20" s="176"/>
       <c r="B20" s="176"/>
       <c r="C20" s="176"/>
@@ -47740,28 +47742,28 @@
       <c r="AT20" s="176"/>
       <c r="AU20" s="176"/>
     </row>
-    <row r="21" spans="1:50" ht="15" customHeight="1">
+    <row r="21" spans="1:50" ht="11.4" customHeight="1">
       <c r="A21" s="123"/>
-      <c r="B21" s="302"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="251"/>
-      <c r="M21" s="251"/>
-      <c r="N21" s="251"/>
-      <c r="O21" s="251"/>
-      <c r="P21" s="257"/>
-      <c r="Q21" s="258"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252"/>
+      <c r="F21" s="252"/>
+      <c r="G21" s="252"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="252"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="252"/>
+      <c r="N21" s="252"/>
+      <c r="O21" s="252"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="259"/>
       <c r="R21" s="136"/>
       <c r="S21" s="137"/>
-      <c r="T21" s="257"/>
-      <c r="U21" s="258"/>
+      <c r="T21" s="258"/>
+      <c r="U21" s="259"/>
       <c r="V21" s="136"/>
       <c r="W21" s="137"/>
       <c r="X21" s="136"/>
@@ -47792,49 +47794,49 @@
       <c r="AW21" s="3"/>
       <c r="AX21" s="3"/>
     </row>
-    <row r="22" spans="1:50" ht="15" customHeight="1">
+    <row r="22" spans="1:50" ht="11.4" customHeight="1">
       <c r="A22" s="124"/>
-      <c r="B22" s="303"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
-      <c r="H22" s="252"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="252"/>
-      <c r="K22" s="252"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="252"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="263"/>
-      <c r="Q22" s="264"/>
-      <c r="R22" s="259"/>
+      <c r="B22" s="304"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
+      <c r="L22" s="253"/>
+      <c r="M22" s="253"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="264"/>
+      <c r="Q22" s="265"/>
+      <c r="R22" s="260"/>
       <c r="S22" s="145"/>
-      <c r="T22" s="263"/>
-      <c r="U22" s="264"/>
-      <c r="V22" s="259"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="265"/>
+      <c r="V22" s="260"/>
       <c r="W22" s="145"/>
-      <c r="X22" s="259"/>
+      <c r="X22" s="260"/>
       <c r="Y22" s="145"/>
-      <c r="Z22" s="259"/>
+      <c r="Z22" s="260"/>
       <c r="AA22" s="145"/>
-      <c r="AB22" s="259"/>
+      <c r="AB22" s="260"/>
       <c r="AC22" s="145"/>
-      <c r="AD22" s="259"/>
+      <c r="AD22" s="260"/>
       <c r="AE22" s="145"/>
-      <c r="AF22" s="259"/>
+      <c r="AF22" s="260"/>
       <c r="AG22" s="145"/>
-      <c r="AH22" s="259"/>
+      <c r="AH22" s="260"/>
       <c r="AI22" s="145"/>
-      <c r="AJ22" s="259"/>
+      <c r="AJ22" s="260"/>
       <c r="AK22" s="145"/>
-      <c r="AL22" s="259"/>
+      <c r="AL22" s="260"/>
       <c r="AM22" s="145"/>
-      <c r="AN22" s="259"/>
+      <c r="AN22" s="260"/>
       <c r="AO22" s="145"/>
-      <c r="AP22" s="259"/>
+      <c r="AP22" s="260"/>
       <c r="AQ22" s="145"/>
       <c r="AR22" s="130"/>
       <c r="AS22" s="131"/>
@@ -47844,50 +47846,50 @@
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
     </row>
-    <row r="23" spans="1:50" ht="15" customHeight="1">
-      <c r="A23" s="281"/>
-      <c r="B23" s="304"/>
-      <c r="C23" s="304"/>
-      <c r="D23" s="249"/>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="249"/>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="282"/>
-      <c r="Q23" s="283"/>
-      <c r="R23" s="284"/>
-      <c r="S23" s="285"/>
-      <c r="T23" s="282"/>
-      <c r="U23" s="283"/>
-      <c r="V23" s="284"/>
-      <c r="W23" s="285"/>
-      <c r="X23" s="284"/>
-      <c r="Y23" s="285"/>
-      <c r="Z23" s="284"/>
-      <c r="AA23" s="285"/>
-      <c r="AB23" s="284"/>
-      <c r="AC23" s="285"/>
-      <c r="AD23" s="284"/>
-      <c r="AE23" s="285"/>
-      <c r="AF23" s="284"/>
-      <c r="AG23" s="285"/>
-      <c r="AH23" s="284"/>
-      <c r="AI23" s="285"/>
-      <c r="AJ23" s="284"/>
-      <c r="AK23" s="285"/>
-      <c r="AL23" s="284"/>
-      <c r="AM23" s="285"/>
-      <c r="AN23" s="284"/>
-      <c r="AO23" s="285"/>
-      <c r="AP23" s="284"/>
-      <c r="AQ23" s="285"/>
+    <row r="23" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A23" s="282"/>
+      <c r="B23" s="305"/>
+      <c r="C23" s="305"/>
+      <c r="D23" s="250"/>
+      <c r="E23" s="250"/>
+      <c r="F23" s="250"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="250"/>
+      <c r="M23" s="250"/>
+      <c r="N23" s="250"/>
+      <c r="O23" s="250"/>
+      <c r="P23" s="283"/>
+      <c r="Q23" s="284"/>
+      <c r="R23" s="285"/>
+      <c r="S23" s="286"/>
+      <c r="T23" s="283"/>
+      <c r="U23" s="284"/>
+      <c r="V23" s="285"/>
+      <c r="W23" s="286"/>
+      <c r="X23" s="285"/>
+      <c r="Y23" s="286"/>
+      <c r="Z23" s="285"/>
+      <c r="AA23" s="286"/>
+      <c r="AB23" s="285"/>
+      <c r="AC23" s="286"/>
+      <c r="AD23" s="285"/>
+      <c r="AE23" s="286"/>
+      <c r="AF23" s="285"/>
+      <c r="AG23" s="286"/>
+      <c r="AH23" s="285"/>
+      <c r="AI23" s="286"/>
+      <c r="AJ23" s="285"/>
+      <c r="AK23" s="286"/>
+      <c r="AL23" s="285"/>
+      <c r="AM23" s="286"/>
+      <c r="AN23" s="285"/>
+      <c r="AO23" s="286"/>
+      <c r="AP23" s="285"/>
+      <c r="AQ23" s="286"/>
       <c r="AR23" s="130"/>
       <c r="AS23" s="131"/>
       <c r="AT23" s="131"/>
@@ -47896,7 +47898,7 @@
       <c r="AW23" s="3"/>
       <c r="AX23" s="3"/>
     </row>
-    <row r="24" spans="1:50" ht="15" customHeight="1">
+    <row r="24" spans="1:50" ht="11.4" customHeight="1">
       <c r="A24" s="96"/>
       <c r="B24" s="96"/>
       <c r="C24" s="97"/>
@@ -47941,14 +47943,14 @@
       <c r="AP24" s="120"/>
       <c r="AQ24" s="120"/>
       <c r="AR24" s="73"/>
-      <c r="AS24" s="275"/>
-      <c r="AT24" s="276"/>
-      <c r="AU24" s="276"/>
+      <c r="AS24" s="276"/>
+      <c r="AT24" s="277"/>
+      <c r="AU24" s="277"/>
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
     </row>
-    <row r="25" spans="1:50" ht="15" customHeight="1">
+    <row r="25" spans="1:50" ht="11.4" customHeight="1">
       <c r="A25" s="98"/>
       <c r="B25" s="98"/>
       <c r="C25" s="99"/>
@@ -47993,14 +47995,14 @@
       <c r="AP25" s="119"/>
       <c r="AQ25" s="119"/>
       <c r="AR25" s="75"/>
-      <c r="AS25" s="279"/>
-      <c r="AT25" s="280"/>
-      <c r="AU25" s="280"/>
+      <c r="AS25" s="280"/>
+      <c r="AT25" s="281"/>
+      <c r="AU25" s="281"/>
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
     </row>
-    <row r="26" spans="1:50" ht="15" customHeight="1">
+    <row r="26" spans="1:50" ht="11.4" customHeight="1">
       <c r="A26" s="100"/>
       <c r="B26" s="100"/>
       <c r="C26" s="101"/>
@@ -48045,14 +48047,14 @@
       <c r="AP26" s="118"/>
       <c r="AQ26" s="118"/>
       <c r="AR26" s="77"/>
-      <c r="AS26" s="277"/>
-      <c r="AT26" s="278"/>
-      <c r="AU26" s="278"/>
+      <c r="AS26" s="278"/>
+      <c r="AT26" s="279"/>
+      <c r="AU26" s="279"/>
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
     </row>
-    <row r="27" spans="1:50" ht="15" customHeight="1">
+    <row r="27" spans="1:50" ht="11.4" customHeight="1">
       <c r="A27" s="98"/>
       <c r="B27" s="190"/>
       <c r="C27" s="190"/>
@@ -48101,7 +48103,7 @@
       <c r="AT27" s="111"/>
       <c r="AU27" s="111"/>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1">
+    <row r="28" spans="1:50" ht="11.4" customHeight="1">
       <c r="A28" s="190"/>
       <c r="B28" s="190"/>
       <c r="C28" s="190"/>
@@ -48150,7 +48152,7 @@
       <c r="AT28" s="111"/>
       <c r="AU28" s="111"/>
     </row>
-    <row r="29" spans="1:50" ht="15" customHeight="1">
+    <row r="29" spans="1:50" ht="11.4" customHeight="1">
       <c r="A29" s="190"/>
       <c r="B29" s="190"/>
       <c r="C29" s="190"/>
@@ -48199,10 +48201,10 @@
       <c r="AT29" s="111"/>
       <c r="AU29" s="111"/>
     </row>
-    <row r="30" spans="1:50" ht="15" customHeight="1">
+    <row r="30" spans="1:50" ht="11.4" customHeight="1">
       <c r="A30" s="96"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="286"/>
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
       <c r="D30" s="104"/>
       <c r="E30" s="104"/>
       <c r="F30" s="104"/>
@@ -48248,7 +48250,7 @@
       <c r="AT30" s="109"/>
       <c r="AU30" s="109"/>
     </row>
-    <row r="31" spans="1:50" ht="15" customHeight="1">
+    <row r="31" spans="1:50" ht="11.4" customHeight="1">
       <c r="A31" s="190"/>
       <c r="B31" s="190"/>
       <c r="C31" s="190"/>
@@ -48297,10 +48299,10 @@
       <c r="AT31" s="111"/>
       <c r="AU31" s="111"/>
     </row>
-    <row r="32" spans="1:50" ht="15" customHeight="1">
-      <c r="A32" s="287"/>
-      <c r="B32" s="287"/>
-      <c r="C32" s="287"/>
+    <row r="32" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A32" s="288"/>
+      <c r="B32" s="288"/>
+      <c r="C32" s="288"/>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
       <c r="F32" s="72"/>
@@ -48346,7 +48348,7 @@
       <c r="AT32" s="113"/>
       <c r="AU32" s="113"/>
     </row>
-    <row r="33" spans="1:50" ht="15" customHeight="1">
+    <row r="33" spans="1:50" ht="11.4" customHeight="1">
       <c r="A33" s="98"/>
       <c r="B33" s="190"/>
       <c r="C33" s="190"/>
@@ -48395,7 +48397,7 @@
       <c r="AT33" s="111"/>
       <c r="AU33" s="111"/>
     </row>
-    <row r="34" spans="1:50" ht="15" customHeight="1">
+    <row r="34" spans="1:50" ht="11.4" customHeight="1">
       <c r="A34" s="190"/>
       <c r="B34" s="190"/>
       <c r="C34" s="190"/>
@@ -48444,7 +48446,7 @@
       <c r="AT34" s="111"/>
       <c r="AU34" s="111"/>
     </row>
-    <row r="35" spans="1:50" ht="15" customHeight="1">
+    <row r="35" spans="1:50" ht="11.4" customHeight="1">
       <c r="A35" s="190"/>
       <c r="B35" s="190"/>
       <c r="C35" s="190"/>
@@ -48493,10 +48495,10 @@
       <c r="AT35" s="111"/>
       <c r="AU35" s="111"/>
     </row>
-    <row r="36" spans="1:50" ht="15" customHeight="1">
+    <row r="36" spans="1:50" ht="11.4" customHeight="1">
       <c r="A36" s="96"/>
-      <c r="B36" s="286"/>
-      <c r="C36" s="286"/>
+      <c r="B36" s="287"/>
+      <c r="C36" s="287"/>
       <c r="D36" s="104"/>
       <c r="E36" s="104"/>
       <c r="F36" s="104"/>
@@ -48542,7 +48544,7 @@
       <c r="AT36" s="109"/>
       <c r="AU36" s="109"/>
     </row>
-    <row r="37" spans="1:50" ht="15" customHeight="1">
+    <row r="37" spans="1:50" ht="11.4" customHeight="1">
       <c r="A37" s="190"/>
       <c r="B37" s="190"/>
       <c r="C37" s="190"/>
@@ -48591,10 +48593,10 @@
       <c r="AT37" s="111"/>
       <c r="AU37" s="111"/>
     </row>
-    <row r="38" spans="1:50" ht="15" customHeight="1">
-      <c r="A38" s="287"/>
-      <c r="B38" s="287"/>
-      <c r="C38" s="287"/>
+    <row r="38" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A38" s="288"/>
+      <c r="B38" s="288"/>
+      <c r="C38" s="288"/>
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
       <c r="F38" s="72"/>
@@ -48640,7 +48642,7 @@
       <c r="AT38" s="113"/>
       <c r="AU38" s="113"/>
     </row>
-    <row r="39" spans="1:50" ht="15" customHeight="1">
+    <row r="39" spans="1:50" ht="11.4" customHeight="1">
       <c r="A39" s="98"/>
       <c r="B39" s="190"/>
       <c r="C39" s="190"/>
@@ -48689,7 +48691,7 @@
       <c r="AT39" s="111"/>
       <c r="AU39" s="111"/>
     </row>
-    <row r="40" spans="1:50" ht="15" customHeight="1">
+    <row r="40" spans="1:50" ht="11.4" customHeight="1">
       <c r="A40" s="190"/>
       <c r="B40" s="190"/>
       <c r="C40" s="190"/>
@@ -48738,10 +48740,10 @@
       <c r="AT40" s="111"/>
       <c r="AU40" s="111"/>
     </row>
-    <row r="41" spans="1:50" ht="15" customHeight="1">
-      <c r="A41" s="287"/>
-      <c r="B41" s="287"/>
-      <c r="C41" s="287"/>
+    <row r="41" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A41" s="288"/>
+      <c r="B41" s="288"/>
+      <c r="C41" s="288"/>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
@@ -48787,7 +48789,7 @@
       <c r="AT41" s="113"/>
       <c r="AU41" s="113"/>
     </row>
-    <row r="42" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:50" s="1" customFormat="1" ht="11.4" customHeight="1">
       <c r="A42" s="176"/>
       <c r="B42" s="176"/>
       <c r="C42" s="176"/>
@@ -48836,7 +48838,7 @@
       <c r="AT42" s="176"/>
       <c r="AU42" s="176"/>
     </row>
-    <row r="43" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:50" s="1" customFormat="1" ht="11.4" customHeight="1">
       <c r="A43" s="176"/>
       <c r="B43" s="176"/>
       <c r="C43" s="176"/>
@@ -48885,28 +48887,28 @@
       <c r="AT43" s="176"/>
       <c r="AU43" s="176"/>
     </row>
-    <row r="44" spans="1:50" ht="15" customHeight="1">
+    <row r="44" spans="1:50" ht="11.4" customHeight="1">
       <c r="A44" s="123"/>
       <c r="B44" s="126"/>
       <c r="C44" s="126"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
-      <c r="N44" s="251"/>
-      <c r="O44" s="251"/>
-      <c r="P44" s="257"/>
-      <c r="Q44" s="258"/>
+      <c r="D44" s="252"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="252"/>
+      <c r="H44" s="252"/>
+      <c r="I44" s="252"/>
+      <c r="J44" s="252"/>
+      <c r="K44" s="252"/>
+      <c r="L44" s="252"/>
+      <c r="M44" s="252"/>
+      <c r="N44" s="252"/>
+      <c r="O44" s="252"/>
+      <c r="P44" s="258"/>
+      <c r="Q44" s="259"/>
       <c r="R44" s="136"/>
       <c r="S44" s="137"/>
-      <c r="T44" s="257"/>
-      <c r="U44" s="258"/>
+      <c r="T44" s="258"/>
+      <c r="U44" s="259"/>
       <c r="V44" s="136"/>
       <c r="W44" s="137"/>
       <c r="X44" s="136"/>
@@ -48937,49 +48939,49 @@
       <c r="AW44" s="3"/>
       <c r="AX44" s="3"/>
     </row>
-    <row r="45" spans="1:50" ht="15" customHeight="1">
+    <row r="45" spans="1:50" ht="11.4" customHeight="1">
       <c r="A45" s="124"/>
       <c r="B45" s="127"/>
       <c r="C45" s="127"/>
-      <c r="D45" s="252"/>
-      <c r="E45" s="252"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="252"/>
-      <c r="H45" s="252"/>
-      <c r="I45" s="252"/>
-      <c r="J45" s="252"/>
-      <c r="K45" s="252"/>
-      <c r="L45" s="252"/>
-      <c r="M45" s="252"/>
-      <c r="N45" s="252"/>
-      <c r="O45" s="252"/>
-      <c r="P45" s="263"/>
-      <c r="Q45" s="264"/>
-      <c r="R45" s="259"/>
+      <c r="D45" s="253"/>
+      <c r="E45" s="253"/>
+      <c r="F45" s="253"/>
+      <c r="G45" s="253"/>
+      <c r="H45" s="253"/>
+      <c r="I45" s="253"/>
+      <c r="J45" s="253"/>
+      <c r="K45" s="253"/>
+      <c r="L45" s="253"/>
+      <c r="M45" s="253"/>
+      <c r="N45" s="253"/>
+      <c r="O45" s="253"/>
+      <c r="P45" s="264"/>
+      <c r="Q45" s="265"/>
+      <c r="R45" s="260"/>
       <c r="S45" s="145"/>
-      <c r="T45" s="263"/>
-      <c r="U45" s="264"/>
-      <c r="V45" s="259"/>
+      <c r="T45" s="264"/>
+      <c r="U45" s="265"/>
+      <c r="V45" s="260"/>
       <c r="W45" s="145"/>
-      <c r="X45" s="259"/>
+      <c r="X45" s="260"/>
       <c r="Y45" s="145"/>
-      <c r="Z45" s="259"/>
+      <c r="Z45" s="260"/>
       <c r="AA45" s="145"/>
-      <c r="AB45" s="259"/>
+      <c r="AB45" s="260"/>
       <c r="AC45" s="145"/>
-      <c r="AD45" s="259"/>
+      <c r="AD45" s="260"/>
       <c r="AE45" s="145"/>
-      <c r="AF45" s="259"/>
+      <c r="AF45" s="260"/>
       <c r="AG45" s="145"/>
-      <c r="AH45" s="259"/>
+      <c r="AH45" s="260"/>
       <c r="AI45" s="145"/>
-      <c r="AJ45" s="259"/>
+      <c r="AJ45" s="260"/>
       <c r="AK45" s="145"/>
-      <c r="AL45" s="259"/>
+      <c r="AL45" s="260"/>
       <c r="AM45" s="145"/>
-      <c r="AN45" s="259"/>
+      <c r="AN45" s="260"/>
       <c r="AO45" s="145"/>
-      <c r="AP45" s="259"/>
+      <c r="AP45" s="260"/>
       <c r="AQ45" s="145"/>
       <c r="AR45" s="130"/>
       <c r="AS45" s="131"/>
@@ -48989,49 +48991,49 @@
       <c r="AW45" s="3"/>
       <c r="AX45" s="3"/>
     </row>
-    <row r="46" spans="1:50" ht="15" customHeight="1">
-      <c r="A46" s="256"/>
+    <row r="46" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A46" s="257"/>
       <c r="B46" s="167"/>
       <c r="C46" s="167"/>
-      <c r="D46" s="253"/>
-      <c r="E46" s="253"/>
-      <c r="F46" s="253"/>
-      <c r="G46" s="253"/>
-      <c r="H46" s="253"/>
-      <c r="I46" s="253"/>
-      <c r="J46" s="253"/>
-      <c r="K46" s="253"/>
-      <c r="L46" s="253"/>
-      <c r="M46" s="253"/>
-      <c r="N46" s="253"/>
-      <c r="O46" s="253"/>
-      <c r="P46" s="260"/>
-      <c r="Q46" s="261"/>
-      <c r="R46" s="262"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
+      <c r="O46" s="254"/>
+      <c r="P46" s="261"/>
+      <c r="Q46" s="262"/>
+      <c r="R46" s="263"/>
       <c r="S46" s="143"/>
-      <c r="T46" s="260"/>
-      <c r="U46" s="261"/>
-      <c r="V46" s="262"/>
+      <c r="T46" s="261"/>
+      <c r="U46" s="262"/>
+      <c r="V46" s="263"/>
       <c r="W46" s="143"/>
-      <c r="X46" s="262"/>
+      <c r="X46" s="263"/>
       <c r="Y46" s="143"/>
-      <c r="Z46" s="262"/>
+      <c r="Z46" s="263"/>
       <c r="AA46" s="143"/>
-      <c r="AB46" s="262"/>
+      <c r="AB46" s="263"/>
       <c r="AC46" s="143"/>
-      <c r="AD46" s="262"/>
+      <c r="AD46" s="263"/>
       <c r="AE46" s="143"/>
-      <c r="AF46" s="262"/>
+      <c r="AF46" s="263"/>
       <c r="AG46" s="143"/>
-      <c r="AH46" s="262"/>
+      <c r="AH46" s="263"/>
       <c r="AI46" s="143"/>
-      <c r="AJ46" s="262"/>
+      <c r="AJ46" s="263"/>
       <c r="AK46" s="143"/>
-      <c r="AL46" s="262"/>
+      <c r="AL46" s="263"/>
       <c r="AM46" s="143"/>
-      <c r="AN46" s="262"/>
+      <c r="AN46" s="263"/>
       <c r="AO46" s="143"/>
-      <c r="AP46" s="262"/>
+      <c r="AP46" s="263"/>
       <c r="AQ46" s="143"/>
       <c r="AR46" s="173"/>
       <c r="AS46" s="174"/>
@@ -49041,28 +49043,28 @@
       <c r="AW46" s="3"/>
       <c r="AX46" s="3"/>
     </row>
-    <row r="47" spans="1:50" ht="15" customHeight="1">
+    <row r="47" spans="1:50" ht="11.4" customHeight="1">
       <c r="A47" s="159"/>
       <c r="B47" s="161"/>
       <c r="C47" s="161"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="254"/>
-      <c r="F47" s="254"/>
-      <c r="G47" s="254"/>
-      <c r="H47" s="254"/>
-      <c r="I47" s="254"/>
-      <c r="J47" s="254"/>
-      <c r="K47" s="254"/>
-      <c r="L47" s="254"/>
-      <c r="M47" s="254"/>
-      <c r="N47" s="254"/>
-      <c r="O47" s="254"/>
-      <c r="P47" s="266"/>
-      <c r="Q47" s="267"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="255"/>
+      <c r="H47" s="255"/>
+      <c r="I47" s="255"/>
+      <c r="J47" s="255"/>
+      <c r="K47" s="255"/>
+      <c r="L47" s="255"/>
+      <c r="M47" s="255"/>
+      <c r="N47" s="255"/>
+      <c r="O47" s="255"/>
+      <c r="P47" s="267"/>
+      <c r="Q47" s="268"/>
       <c r="R47" s="155"/>
       <c r="S47" s="156"/>
-      <c r="T47" s="266"/>
-      <c r="U47" s="267"/>
+      <c r="T47" s="267"/>
+      <c r="U47" s="268"/>
       <c r="V47" s="155"/>
       <c r="W47" s="156"/>
       <c r="X47" s="155"/>
@@ -49093,50 +49095,50 @@
       <c r="AW47" s="3"/>
       <c r="AX47" s="3"/>
     </row>
-    <row r="48" spans="1:50" ht="15" customHeight="1">
+    <row r="48" spans="1:50" ht="11.4" customHeight="1">
       <c r="A48" s="159"/>
       <c r="B48" s="162"/>
       <c r="C48" s="162"/>
-      <c r="D48" s="255"/>
-      <c r="E48" s="255"/>
-      <c r="F48" s="255"/>
-      <c r="G48" s="255"/>
-      <c r="H48" s="255"/>
-      <c r="I48" s="255"/>
-      <c r="J48" s="255"/>
-      <c r="K48" s="255"/>
-      <c r="L48" s="255"/>
-      <c r="M48" s="255"/>
-      <c r="N48" s="255"/>
-      <c r="O48" s="255"/>
-      <c r="P48" s="273"/>
-      <c r="Q48" s="274"/>
+      <c r="D48" s="256"/>
+      <c r="E48" s="256"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="256"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="256"/>
+      <c r="L48" s="256"/>
+      <c r="M48" s="256"/>
+      <c r="N48" s="256"/>
+      <c r="O48" s="256"/>
+      <c r="P48" s="274"/>
+      <c r="Q48" s="275"/>
       <c r="R48" s="144"/>
-      <c r="S48" s="268"/>
-      <c r="T48" s="273"/>
-      <c r="U48" s="274"/>
+      <c r="S48" s="269"/>
+      <c r="T48" s="274"/>
+      <c r="U48" s="275"/>
       <c r="V48" s="144"/>
-      <c r="W48" s="268"/>
+      <c r="W48" s="269"/>
       <c r="X48" s="144"/>
-      <c r="Y48" s="268"/>
+      <c r="Y48" s="269"/>
       <c r="Z48" s="144"/>
-      <c r="AA48" s="268"/>
+      <c r="AA48" s="269"/>
       <c r="AB48" s="144"/>
-      <c r="AC48" s="268"/>
+      <c r="AC48" s="269"/>
       <c r="AD48" s="144"/>
-      <c r="AE48" s="268"/>
+      <c r="AE48" s="269"/>
       <c r="AF48" s="144"/>
-      <c r="AG48" s="268"/>
+      <c r="AG48" s="269"/>
       <c r="AH48" s="144"/>
-      <c r="AI48" s="268"/>
+      <c r="AI48" s="269"/>
       <c r="AJ48" s="144"/>
-      <c r="AK48" s="268"/>
+      <c r="AK48" s="269"/>
       <c r="AL48" s="144"/>
-      <c r="AM48" s="268"/>
+      <c r="AM48" s="269"/>
       <c r="AN48" s="144"/>
-      <c r="AO48" s="268"/>
+      <c r="AO48" s="269"/>
       <c r="AP48" s="144"/>
-      <c r="AQ48" s="268"/>
+      <c r="AQ48" s="269"/>
       <c r="AR48" s="138"/>
       <c r="AS48" s="139"/>
       <c r="AT48" s="139"/>
@@ -49145,50 +49147,50 @@
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
     </row>
-    <row r="49" spans="1:50" ht="15" customHeight="1">
-      <c r="A49" s="265"/>
-      <c r="B49" s="305"/>
-      <c r="C49" s="305"/>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
-      <c r="K49" s="250"/>
-      <c r="L49" s="250"/>
-      <c r="M49" s="250"/>
-      <c r="N49" s="250"/>
-      <c r="O49" s="250"/>
-      <c r="P49" s="269"/>
-      <c r="Q49" s="270"/>
-      <c r="R49" s="271"/>
-      <c r="S49" s="272"/>
-      <c r="T49" s="269"/>
-      <c r="U49" s="270"/>
-      <c r="V49" s="271"/>
-      <c r="W49" s="272"/>
-      <c r="X49" s="271"/>
-      <c r="Y49" s="272"/>
-      <c r="Z49" s="271"/>
-      <c r="AA49" s="272"/>
-      <c r="AB49" s="271"/>
-      <c r="AC49" s="272"/>
-      <c r="AD49" s="271"/>
-      <c r="AE49" s="272"/>
-      <c r="AF49" s="271"/>
-      <c r="AG49" s="272"/>
-      <c r="AH49" s="271"/>
-      <c r="AI49" s="272"/>
-      <c r="AJ49" s="271"/>
-      <c r="AK49" s="272"/>
-      <c r="AL49" s="271"/>
-      <c r="AM49" s="272"/>
-      <c r="AN49" s="271"/>
-      <c r="AO49" s="272"/>
-      <c r="AP49" s="271"/>
-      <c r="AQ49" s="272"/>
+    <row r="49" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A49" s="266"/>
+      <c r="B49" s="306"/>
+      <c r="C49" s="306"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="251"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="251"/>
+      <c r="M49" s="251"/>
+      <c r="N49" s="251"/>
+      <c r="O49" s="251"/>
+      <c r="P49" s="270"/>
+      <c r="Q49" s="271"/>
+      <c r="R49" s="272"/>
+      <c r="S49" s="273"/>
+      <c r="T49" s="270"/>
+      <c r="U49" s="271"/>
+      <c r="V49" s="272"/>
+      <c r="W49" s="273"/>
+      <c r="X49" s="272"/>
+      <c r="Y49" s="273"/>
+      <c r="Z49" s="272"/>
+      <c r="AA49" s="273"/>
+      <c r="AB49" s="272"/>
+      <c r="AC49" s="273"/>
+      <c r="AD49" s="272"/>
+      <c r="AE49" s="273"/>
+      <c r="AF49" s="272"/>
+      <c r="AG49" s="273"/>
+      <c r="AH49" s="272"/>
+      <c r="AI49" s="273"/>
+      <c r="AJ49" s="272"/>
+      <c r="AK49" s="273"/>
+      <c r="AL49" s="272"/>
+      <c r="AM49" s="273"/>
+      <c r="AN49" s="272"/>
+      <c r="AO49" s="273"/>
+      <c r="AP49" s="272"/>
+      <c r="AQ49" s="273"/>
       <c r="AR49" s="138"/>
       <c r="AS49" s="139"/>
       <c r="AT49" s="139"/>
@@ -49197,7 +49199,7 @@
       <c r="AW49" s="3"/>
       <c r="AX49" s="3"/>
     </row>
-    <row r="50" spans="1:50" ht="15" customHeight="1">
+    <row r="50" spans="1:50" ht="11.4" customHeight="1">
       <c r="A50" s="96"/>
       <c r="B50" s="96"/>
       <c r="C50" s="97"/>
@@ -49242,14 +49244,14 @@
       <c r="AP50" s="120"/>
       <c r="AQ50" s="120"/>
       <c r="AR50" s="73"/>
-      <c r="AS50" s="275"/>
-      <c r="AT50" s="276"/>
-      <c r="AU50" s="276"/>
+      <c r="AS50" s="276"/>
+      <c r="AT50" s="277"/>
+      <c r="AU50" s="277"/>
       <c r="AV50" s="3"/>
       <c r="AW50" s="3"/>
       <c r="AX50" s="3"/>
     </row>
-    <row r="51" spans="1:50" ht="15" customHeight="1">
+    <row r="51" spans="1:50" ht="11.4" customHeight="1">
       <c r="A51" s="98"/>
       <c r="B51" s="98"/>
       <c r="C51" s="99"/>
@@ -49294,14 +49296,14 @@
       <c r="AP51" s="119"/>
       <c r="AQ51" s="119"/>
       <c r="AR51" s="75"/>
-      <c r="AS51" s="279"/>
-      <c r="AT51" s="280"/>
-      <c r="AU51" s="280"/>
+      <c r="AS51" s="280"/>
+      <c r="AT51" s="281"/>
+      <c r="AU51" s="281"/>
       <c r="AV51" s="3"/>
       <c r="AW51" s="3"/>
       <c r="AX51" s="3"/>
     </row>
-    <row r="52" spans="1:50" ht="15" customHeight="1">
+    <row r="52" spans="1:50" ht="11.4" customHeight="1">
       <c r="A52" s="100"/>
       <c r="B52" s="100"/>
       <c r="C52" s="101"/>
@@ -49346,14 +49348,14 @@
       <c r="AP52" s="118"/>
       <c r="AQ52" s="118"/>
       <c r="AR52" s="77"/>
-      <c r="AS52" s="277"/>
-      <c r="AT52" s="278"/>
-      <c r="AU52" s="278"/>
+      <c r="AS52" s="278"/>
+      <c r="AT52" s="279"/>
+      <c r="AU52" s="279"/>
       <c r="AV52" s="3"/>
       <c r="AW52" s="3"/>
       <c r="AX52" s="3"/>
     </row>
-    <row r="53" spans="1:50" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:50" s="1" customFormat="1" ht="11.4" customHeight="1">
       <c r="A53" s="176"/>
       <c r="B53" s="176"/>
       <c r="C53" s="176"/>
@@ -49402,28 +49404,28 @@
       <c r="AT53" s="176"/>
       <c r="AU53" s="176"/>
     </row>
-    <row r="54" spans="1:50" ht="15" customHeight="1">
+    <row r="54" spans="1:50" ht="11.4" customHeight="1">
       <c r="A54" s="123"/>
       <c r="B54" s="126"/>
       <c r="C54" s="123"/>
-      <c r="D54" s="251"/>
-      <c r="E54" s="251"/>
-      <c r="F54" s="251"/>
-      <c r="G54" s="251"/>
-      <c r="H54" s="251"/>
-      <c r="I54" s="251"/>
-      <c r="J54" s="251"/>
-      <c r="K54" s="251"/>
-      <c r="L54" s="251"/>
-      <c r="M54" s="251"/>
-      <c r="N54" s="251"/>
-      <c r="O54" s="251"/>
-      <c r="P54" s="257"/>
-      <c r="Q54" s="258"/>
+      <c r="D54" s="252"/>
+      <c r="E54" s="252"/>
+      <c r="F54" s="252"/>
+      <c r="G54" s="252"/>
+      <c r="H54" s="252"/>
+      <c r="I54" s="252"/>
+      <c r="J54" s="252"/>
+      <c r="K54" s="252"/>
+      <c r="L54" s="252"/>
+      <c r="M54" s="252"/>
+      <c r="N54" s="252"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="258"/>
+      <c r="Q54" s="259"/>
       <c r="R54" s="136"/>
       <c r="S54" s="137"/>
-      <c r="T54" s="257"/>
-      <c r="U54" s="258"/>
+      <c r="T54" s="258"/>
+      <c r="U54" s="259"/>
       <c r="V54" s="136"/>
       <c r="W54" s="137"/>
       <c r="X54" s="136"/>
@@ -49454,49 +49456,49 @@
       <c r="AW54" s="3"/>
       <c r="AX54" s="3"/>
     </row>
-    <row r="55" spans="1:50" ht="15" customHeight="1">
+    <row r="55" spans="1:50" ht="11.4" customHeight="1">
       <c r="A55" s="124"/>
       <c r="B55" s="127"/>
       <c r="C55" s="124"/>
-      <c r="D55" s="252"/>
-      <c r="E55" s="252"/>
-      <c r="F55" s="252"/>
-      <c r="G55" s="252"/>
-      <c r="H55" s="252"/>
-      <c r="I55" s="252"/>
-      <c r="J55" s="252"/>
-      <c r="K55" s="252"/>
-      <c r="L55" s="252"/>
-      <c r="M55" s="252"/>
-      <c r="N55" s="252"/>
-      <c r="O55" s="252"/>
-      <c r="P55" s="263"/>
-      <c r="Q55" s="264"/>
-      <c r="R55" s="259"/>
+      <c r="D55" s="253"/>
+      <c r="E55" s="253"/>
+      <c r="F55" s="253"/>
+      <c r="G55" s="253"/>
+      <c r="H55" s="253"/>
+      <c r="I55" s="253"/>
+      <c r="J55" s="253"/>
+      <c r="K55" s="253"/>
+      <c r="L55" s="253"/>
+      <c r="M55" s="253"/>
+      <c r="N55" s="253"/>
+      <c r="O55" s="253"/>
+      <c r="P55" s="264"/>
+      <c r="Q55" s="265"/>
+      <c r="R55" s="260"/>
       <c r="S55" s="145"/>
-      <c r="T55" s="263"/>
-      <c r="U55" s="264"/>
-      <c r="V55" s="259"/>
+      <c r="T55" s="264"/>
+      <c r="U55" s="265"/>
+      <c r="V55" s="260"/>
       <c r="W55" s="145"/>
-      <c r="X55" s="259"/>
+      <c r="X55" s="260"/>
       <c r="Y55" s="145"/>
-      <c r="Z55" s="259"/>
+      <c r="Z55" s="260"/>
       <c r="AA55" s="145"/>
-      <c r="AB55" s="259"/>
+      <c r="AB55" s="260"/>
       <c r="AC55" s="145"/>
-      <c r="AD55" s="259"/>
+      <c r="AD55" s="260"/>
       <c r="AE55" s="145"/>
-      <c r="AF55" s="259"/>
+      <c r="AF55" s="260"/>
       <c r="AG55" s="145"/>
-      <c r="AH55" s="259"/>
+      <c r="AH55" s="260"/>
       <c r="AI55" s="145"/>
-      <c r="AJ55" s="259"/>
+      <c r="AJ55" s="260"/>
       <c r="AK55" s="145"/>
-      <c r="AL55" s="259"/>
+      <c r="AL55" s="260"/>
       <c r="AM55" s="145"/>
-      <c r="AN55" s="259"/>
+      <c r="AN55" s="260"/>
       <c r="AO55" s="145"/>
-      <c r="AP55" s="259"/>
+      <c r="AP55" s="260"/>
       <c r="AQ55" s="145"/>
       <c r="AR55" s="130"/>
       <c r="AS55" s="131"/>
@@ -49506,50 +49508,50 @@
       <c r="AW55" s="3"/>
       <c r="AX55" s="3"/>
     </row>
-    <row r="56" spans="1:50" ht="15" customHeight="1">
-      <c r="A56" s="281"/>
+    <row r="56" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A56" s="282"/>
       <c r="B56" s="167"/>
       <c r="C56" s="166"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-      <c r="F56" s="249"/>
-      <c r="G56" s="249"/>
-      <c r="H56" s="249"/>
-      <c r="I56" s="249"/>
-      <c r="J56" s="249"/>
-      <c r="K56" s="249"/>
-      <c r="L56" s="249"/>
-      <c r="M56" s="249"/>
-      <c r="N56" s="249"/>
-      <c r="O56" s="249"/>
-      <c r="P56" s="282"/>
-      <c r="Q56" s="283"/>
-      <c r="R56" s="284"/>
-      <c r="S56" s="285"/>
-      <c r="T56" s="282"/>
-      <c r="U56" s="283"/>
-      <c r="V56" s="284"/>
-      <c r="W56" s="285"/>
-      <c r="X56" s="284"/>
-      <c r="Y56" s="285"/>
-      <c r="Z56" s="284"/>
-      <c r="AA56" s="285"/>
-      <c r="AB56" s="284"/>
-      <c r="AC56" s="285"/>
-      <c r="AD56" s="284"/>
-      <c r="AE56" s="285"/>
-      <c r="AF56" s="284"/>
-      <c r="AG56" s="285"/>
-      <c r="AH56" s="284"/>
-      <c r="AI56" s="285"/>
-      <c r="AJ56" s="284"/>
-      <c r="AK56" s="285"/>
-      <c r="AL56" s="284"/>
-      <c r="AM56" s="285"/>
-      <c r="AN56" s="284"/>
-      <c r="AO56" s="285"/>
-      <c r="AP56" s="284"/>
-      <c r="AQ56" s="285"/>
+      <c r="D56" s="250"/>
+      <c r="E56" s="250"/>
+      <c r="F56" s="250"/>
+      <c r="G56" s="250"/>
+      <c r="H56" s="250"/>
+      <c r="I56" s="250"/>
+      <c r="J56" s="250"/>
+      <c r="K56" s="250"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="250"/>
+      <c r="N56" s="250"/>
+      <c r="O56" s="250"/>
+      <c r="P56" s="283"/>
+      <c r="Q56" s="284"/>
+      <c r="R56" s="285"/>
+      <c r="S56" s="286"/>
+      <c r="T56" s="283"/>
+      <c r="U56" s="284"/>
+      <c r="V56" s="285"/>
+      <c r="W56" s="286"/>
+      <c r="X56" s="285"/>
+      <c r="Y56" s="286"/>
+      <c r="Z56" s="285"/>
+      <c r="AA56" s="286"/>
+      <c r="AB56" s="285"/>
+      <c r="AC56" s="286"/>
+      <c r="AD56" s="285"/>
+      <c r="AE56" s="286"/>
+      <c r="AF56" s="285"/>
+      <c r="AG56" s="286"/>
+      <c r="AH56" s="285"/>
+      <c r="AI56" s="286"/>
+      <c r="AJ56" s="285"/>
+      <c r="AK56" s="286"/>
+      <c r="AL56" s="285"/>
+      <c r="AM56" s="286"/>
+      <c r="AN56" s="285"/>
+      <c r="AO56" s="286"/>
+      <c r="AP56" s="285"/>
+      <c r="AQ56" s="286"/>
       <c r="AR56" s="130"/>
       <c r="AS56" s="131"/>
       <c r="AT56" s="131"/>
@@ -49558,7 +49560,7 @@
       <c r="AW56" s="3"/>
       <c r="AX56" s="3"/>
     </row>
-    <row r="57" spans="1:50" ht="15" customHeight="1">
+    <row r="57" spans="1:50" ht="11.4" customHeight="1">
       <c r="A57" s="96"/>
       <c r="B57" s="96"/>
       <c r="C57" s="97"/>
@@ -49603,14 +49605,14 @@
       <c r="AP57" s="120"/>
       <c r="AQ57" s="120"/>
       <c r="AR57" s="73"/>
-      <c r="AS57" s="275"/>
-      <c r="AT57" s="276"/>
-      <c r="AU57" s="276"/>
+      <c r="AS57" s="276"/>
+      <c r="AT57" s="277"/>
+      <c r="AU57" s="277"/>
       <c r="AV57" s="3"/>
       <c r="AW57" s="3"/>
       <c r="AX57" s="3"/>
     </row>
-    <row r="58" spans="1:50" ht="15" customHeight="1">
+    <row r="58" spans="1:50" ht="11.4" customHeight="1">
       <c r="A58" s="98"/>
       <c r="B58" s="98"/>
       <c r="C58" s="99"/>
@@ -49655,14 +49657,14 @@
       <c r="AP58" s="119"/>
       <c r="AQ58" s="119"/>
       <c r="AR58" s="75"/>
-      <c r="AS58" s="279"/>
-      <c r="AT58" s="280"/>
-      <c r="AU58" s="280"/>
+      <c r="AS58" s="280"/>
+      <c r="AT58" s="281"/>
+      <c r="AU58" s="281"/>
       <c r="AV58" s="3"/>
       <c r="AW58" s="3"/>
       <c r="AX58" s="3"/>
     </row>
-    <row r="59" spans="1:50" ht="15" customHeight="1">
+    <row r="59" spans="1:50" ht="11.4" customHeight="1">
       <c r="A59" s="100"/>
       <c r="B59" s="100"/>
       <c r="C59" s="101"/>
@@ -49707,14 +49709,14 @@
       <c r="AP59" s="118"/>
       <c r="AQ59" s="118"/>
       <c r="AR59" s="77"/>
-      <c r="AS59" s="277"/>
-      <c r="AT59" s="278"/>
-      <c r="AU59" s="278"/>
+      <c r="AS59" s="278"/>
+      <c r="AT59" s="279"/>
+      <c r="AU59" s="279"/>
       <c r="AV59" s="3"/>
       <c r="AW59" s="3"/>
       <c r="AX59" s="3"/>
     </row>
-    <row r="60" spans="1:50" ht="15" customHeight="1">
+    <row r="60" spans="1:50" ht="11.4" customHeight="1">
       <c r="A60" s="98"/>
       <c r="B60" s="190"/>
       <c r="C60" s="190"/>
@@ -49763,7 +49765,7 @@
       <c r="AT60" s="111"/>
       <c r="AU60" s="111"/>
     </row>
-    <row r="61" spans="1:50" ht="15" customHeight="1">
+    <row r="61" spans="1:50" ht="11.4" customHeight="1">
       <c r="A61" s="190"/>
       <c r="B61" s="190"/>
       <c r="C61" s="190"/>
@@ -49812,7 +49814,7 @@
       <c r="AT61" s="111"/>
       <c r="AU61" s="111"/>
     </row>
-    <row r="62" spans="1:50" ht="15" customHeight="1">
+    <row r="62" spans="1:50" ht="11.4" customHeight="1">
       <c r="A62" s="190"/>
       <c r="B62" s="190"/>
       <c r="C62" s="190"/>
@@ -49861,10 +49863,10 @@
       <c r="AT62" s="111"/>
       <c r="AU62" s="111"/>
     </row>
-    <row r="63" spans="1:50" ht="15" customHeight="1">
+    <row r="63" spans="1:50" ht="11.4" customHeight="1">
       <c r="A63" s="96"/>
-      <c r="B63" s="286"/>
-      <c r="C63" s="286"/>
+      <c r="B63" s="287"/>
+      <c r="C63" s="287"/>
       <c r="D63" s="104"/>
       <c r="E63" s="104"/>
       <c r="F63" s="104"/>
@@ -49910,7 +49912,7 @@
       <c r="AT63" s="109"/>
       <c r="AU63" s="109"/>
     </row>
-    <row r="64" spans="1:50" ht="15" customHeight="1">
+    <row r="64" spans="1:50" ht="11.4" customHeight="1">
       <c r="A64" s="190"/>
       <c r="B64" s="190"/>
       <c r="C64" s="190"/>
@@ -49959,10 +49961,10 @@
       <c r="AT64" s="111"/>
       <c r="AU64" s="111"/>
     </row>
-    <row r="65" spans="1:50" ht="15" customHeight="1">
-      <c r="A65" s="287"/>
-      <c r="B65" s="287"/>
-      <c r="C65" s="287"/>
+    <row r="65" spans="1:50" ht="11.4" customHeight="1">
+      <c r="A65" s="288"/>
+      <c r="B65" s="288"/>
+      <c r="C65" s="288"/>
       <c r="D65" s="72"/>
       <c r="E65" s="72"/>
       <c r="F65" s="72"/>
@@ -50008,7 +50010,7 @@
       <c r="AT65" s="113"/>
       <c r="AU65" s="113"/>
     </row>
-    <row r="66" spans="1:50" ht="15" customHeight="1">
+    <row r="66" spans="1:50" ht="11.4" customHeight="1">
       <c r="A66" s="98"/>
       <c r="B66" s="190"/>
       <c r="C66" s="190"/>
@@ -50057,7 +50059,7 @@
       <c r="AT66" s="111"/>
       <c r="AU66" s="111"/>
     </row>
-    <row r="67" spans="1:50" ht="15" customHeight="1">
+    <row r="67" spans="1:50" ht="11.4" customHeight="1">
       <c r="A67" s="190"/>
       <c r="B67" s="190"/>
       <c r="C67" s="190"/>
@@ -50106,7 +50108,7 @@
       <c r="AT67" s="111"/>
       <c r="AU67" s="111"/>
     </row>
-    <row r="68" spans="1:50" ht="15" customHeight="1">
+    <row r="68" spans="1:50" ht="11.4" customHeight="1">
       <c r="A68" s="190"/>
       <c r="B68" s="190"/>
       <c r="C68" s="190"/>
@@ -50155,7 +50157,7 @@
       <c r="AT68" s="111"/>
       <c r="AU68" s="111"/>
     </row>
-    <row r="69" spans="1:50" ht="15" customHeight="1">
+    <row r="69" spans="1:50" ht="11.4" customHeight="1">
       <c r="A69" s="96"/>
       <c r="B69" s="96"/>
       <c r="C69" s="97"/>
@@ -50204,7 +50206,7 @@
       <c r="AT69" s="109"/>
       <c r="AU69" s="109"/>
     </row>
-    <row r="70" spans="1:50" ht="15" customHeight="1">
+    <row r="70" spans="1:50" ht="11.4" customHeight="1">
       <c r="A70" s="98"/>
       <c r="B70" s="98"/>
       <c r="C70" s="99"/>
@@ -50253,7 +50255,7 @@
       <c r="AT70" s="111"/>
       <c r="AU70" s="111"/>
     </row>
-    <row r="71" spans="1:50" ht="15" customHeight="1">
+    <row r="71" spans="1:50" ht="11.4" customHeight="1">
       <c r="A71" s="100"/>
       <c r="B71" s="100"/>
       <c r="C71" s="101"/>
@@ -50302,7 +50304,7 @@
       <c r="AT71" s="113"/>
       <c r="AU71" s="113"/>
     </row>
-    <row r="72" spans="1:50" ht="15" customHeight="1">
+    <row r="72" spans="1:50" ht="11.4" customHeight="1">
       <c r="A72" s="98"/>
       <c r="B72" s="98"/>
       <c r="C72" s="99"/>
@@ -50351,7 +50353,7 @@
       <c r="AT72" s="111"/>
       <c r="AU72" s="111"/>
     </row>
-    <row r="73" spans="1:50" ht="15" customHeight="1">
+    <row r="73" spans="1:50" ht="11.4" customHeight="1">
       <c r="A73" s="98"/>
       <c r="B73" s="98"/>
       <c r="C73" s="99"/>
@@ -50400,108 +50402,108 @@
       <c r="AT73" s="111"/>
       <c r="AU73" s="111"/>
     </row>
-    <row r="74" spans="1:50" ht="15" customHeight="1" thickBot="1">
-      <c r="A74" s="288"/>
-      <c r="B74" s="288"/>
-      <c r="C74" s="289"/>
-      <c r="D74" s="247"/>
-      <c r="E74" s="247"/>
-      <c r="F74" s="247"/>
-      <c r="G74" s="247"/>
-      <c r="H74" s="247"/>
-      <c r="I74" s="247"/>
-      <c r="J74" s="247"/>
-      <c r="K74" s="247"/>
-      <c r="L74" s="247"/>
-      <c r="M74" s="247"/>
-      <c r="N74" s="247"/>
-      <c r="O74" s="247"/>
-      <c r="P74" s="247"/>
-      <c r="Q74" s="247"/>
-      <c r="R74" s="247"/>
-      <c r="S74" s="247"/>
-      <c r="T74" s="247"/>
-      <c r="U74" s="247"/>
-      <c r="V74" s="247"/>
-      <c r="W74" s="247"/>
-      <c r="X74" s="290"/>
-      <c r="Y74" s="291"/>
-      <c r="Z74" s="290"/>
-      <c r="AA74" s="291"/>
-      <c r="AB74" s="290"/>
-      <c r="AC74" s="291"/>
-      <c r="AD74" s="290"/>
-      <c r="AE74" s="291"/>
-      <c r="AF74" s="290"/>
-      <c r="AG74" s="291"/>
-      <c r="AH74" s="290"/>
-      <c r="AI74" s="291"/>
-      <c r="AJ74" s="290"/>
-      <c r="AK74" s="291"/>
-      <c r="AL74" s="290"/>
-      <c r="AM74" s="291"/>
-      <c r="AN74" s="290"/>
-      <c r="AO74" s="291"/>
-      <c r="AP74" s="290"/>
-      <c r="AQ74" s="291"/>
-      <c r="AR74" s="292"/>
-      <c r="AS74" s="293"/>
-      <c r="AT74" s="294"/>
-      <c r="AU74" s="294"/>
+    <row r="74" spans="1:50" ht="11.4" customHeight="1" thickBot="1">
+      <c r="A74" s="289"/>
+      <c r="B74" s="289"/>
+      <c r="C74" s="290"/>
+      <c r="D74" s="248"/>
+      <c r="E74" s="248"/>
+      <c r="F74" s="248"/>
+      <c r="G74" s="248"/>
+      <c r="H74" s="248"/>
+      <c r="I74" s="248"/>
+      <c r="J74" s="248"/>
+      <c r="K74" s="248"/>
+      <c r="L74" s="248"/>
+      <c r="M74" s="248"/>
+      <c r="N74" s="248"/>
+      <c r="O74" s="248"/>
+      <c r="P74" s="248"/>
+      <c r="Q74" s="248"/>
+      <c r="R74" s="248"/>
+      <c r="S74" s="248"/>
+      <c r="T74" s="248"/>
+      <c r="U74" s="248"/>
+      <c r="V74" s="248"/>
+      <c r="W74" s="248"/>
+      <c r="X74" s="291"/>
+      <c r="Y74" s="292"/>
+      <c r="Z74" s="291"/>
+      <c r="AA74" s="292"/>
+      <c r="AB74" s="291"/>
+      <c r="AC74" s="292"/>
+      <c r="AD74" s="291"/>
+      <c r="AE74" s="292"/>
+      <c r="AF74" s="291"/>
+      <c r="AG74" s="292"/>
+      <c r="AH74" s="291"/>
+      <c r="AI74" s="292"/>
+      <c r="AJ74" s="291"/>
+      <c r="AK74" s="292"/>
+      <c r="AL74" s="291"/>
+      <c r="AM74" s="292"/>
+      <c r="AN74" s="291"/>
+      <c r="AO74" s="292"/>
+      <c r="AP74" s="291"/>
+      <c r="AQ74" s="292"/>
+      <c r="AR74" s="293"/>
+      <c r="AS74" s="294"/>
+      <c r="AT74" s="295"/>
+      <c r="AU74" s="295"/>
     </row>
-    <row r="75" spans="1:50" ht="15" customHeight="1" thickTop="1">
-      <c r="A75" s="295"/>
-      <c r="B75" s="295"/>
-      <c r="C75" s="296"/>
-      <c r="D75" s="248"/>
-      <c r="E75" s="248"/>
-      <c r="F75" s="248"/>
-      <c r="G75" s="248"/>
-      <c r="H75" s="248"/>
-      <c r="I75" s="248"/>
-      <c r="J75" s="248"/>
-      <c r="K75" s="248"/>
-      <c r="L75" s="248"/>
-      <c r="M75" s="248"/>
-      <c r="N75" s="248"/>
-      <c r="O75" s="248"/>
-      <c r="P75" s="248"/>
-      <c r="Q75" s="248"/>
-      <c r="R75" s="248"/>
-      <c r="S75" s="248"/>
-      <c r="T75" s="248"/>
-      <c r="U75" s="248"/>
-      <c r="V75" s="248"/>
-      <c r="W75" s="248"/>
-      <c r="X75" s="300"/>
-      <c r="Y75" s="301"/>
-      <c r="Z75" s="300"/>
-      <c r="AA75" s="301"/>
-      <c r="AB75" s="300"/>
-      <c r="AC75" s="301"/>
-      <c r="AD75" s="300"/>
-      <c r="AE75" s="301"/>
-      <c r="AF75" s="300"/>
-      <c r="AG75" s="301"/>
-      <c r="AH75" s="300"/>
-      <c r="AI75" s="301"/>
-      <c r="AJ75" s="300"/>
-      <c r="AK75" s="301"/>
-      <c r="AL75" s="300"/>
-      <c r="AM75" s="301"/>
-      <c r="AN75" s="300"/>
-      <c r="AO75" s="301"/>
-      <c r="AP75" s="300"/>
-      <c r="AQ75" s="301"/>
-      <c r="AR75" s="297"/>
-      <c r="AS75" s="298"/>
-      <c r="AT75" s="299"/>
-      <c r="AU75" s="299"/>
+    <row r="75" spans="1:50" ht="11.4" customHeight="1" thickTop="1">
+      <c r="A75" s="296"/>
+      <c r="B75" s="296"/>
+      <c r="C75" s="297"/>
+      <c r="D75" s="249"/>
+      <c r="E75" s="249"/>
+      <c r="F75" s="249"/>
+      <c r="G75" s="249"/>
+      <c r="H75" s="249"/>
+      <c r="I75" s="249"/>
+      <c r="J75" s="249"/>
+      <c r="K75" s="249"/>
+      <c r="L75" s="249"/>
+      <c r="M75" s="249"/>
+      <c r="N75" s="249"/>
+      <c r="O75" s="249"/>
+      <c r="P75" s="249"/>
+      <c r="Q75" s="249"/>
+      <c r="R75" s="249"/>
+      <c r="S75" s="249"/>
+      <c r="T75" s="249"/>
+      <c r="U75" s="249"/>
+      <c r="V75" s="249"/>
+      <c r="W75" s="249"/>
+      <c r="X75" s="301"/>
+      <c r="Y75" s="302"/>
+      <c r="Z75" s="301"/>
+      <c r="AA75" s="302"/>
+      <c r="AB75" s="301"/>
+      <c r="AC75" s="302"/>
+      <c r="AD75" s="301"/>
+      <c r="AE75" s="302"/>
+      <c r="AF75" s="301"/>
+      <c r="AG75" s="302"/>
+      <c r="AH75" s="301"/>
+      <c r="AI75" s="302"/>
+      <c r="AJ75" s="301"/>
+      <c r="AK75" s="302"/>
+      <c r="AL75" s="301"/>
+      <c r="AM75" s="302"/>
+      <c r="AN75" s="301"/>
+      <c r="AO75" s="302"/>
+      <c r="AP75" s="301"/>
+      <c r="AQ75" s="302"/>
+      <c r="AR75" s="298"/>
+      <c r="AS75" s="299"/>
+      <c r="AT75" s="300"/>
+      <c r="AU75" s="300"/>
       <c r="AV75" s="3"/>
       <c r="AW75" s="3"/>
       <c r="AX75" s="3"/>
     </row>
-    <row r="76" spans="1:50" ht="15" customHeight="1">
+    <row r="76" spans="1:50" ht="11.4" customHeight="1">
       <c r="A76" s="98"/>
       <c r="B76" s="98"/>
       <c r="C76" s="99"/>
@@ -50553,7 +50555,7 @@
       <c r="AW76" s="3"/>
       <c r="AX76" s="3"/>
     </row>
-    <row r="77" spans="1:50" ht="15" customHeight="1">
+    <row r="77" spans="1:50" ht="11.4" customHeight="1">
       <c r="A77" s="100"/>
       <c r="B77" s="100"/>
       <c r="C77" s="101"/>
@@ -52054,13 +52056,13 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -52352,6 +52354,8 @@
       <c r="AT6" s="50"/>
       <c r="AU6" s="50"/>
     </row>
+    <row r="7" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="8" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B3:C6"/>
@@ -52415,13 +52419,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -52822,6 +52826,8 @@
       <c r="AT8" s="66"/>
       <c r="AU8" s="66"/>
     </row>
+    <row r="9" spans="1:47" ht="13.8" customHeight="1"/>
+    <row r="10" spans="1:47" ht="13.8" customHeight="1"/>
   </sheetData>
   <mergeCells count="64">
     <mergeCell ref="AR3:AU8"/>
@@ -53533,7 +53539,7 @@
   <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="130" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -54020,13 +54026,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AU37"/>
+  <dimension ref="A1:AU30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22:AE22"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="11.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
@@ -54133,7 +54139,7 @@
       <c r="AT2" s="10"/>
       <c r="AU2" s="10"/>
     </row>
-    <row r="3" spans="1:47" ht="13.5" customHeight="1">
+    <row r="3" spans="1:47" ht="15" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
@@ -54182,7 +54188,7 @@
       <c r="AT3" s="49"/>
       <c r="AU3" s="49"/>
     </row>
-    <row r="4" spans="1:47" ht="9.9" customHeight="1">
+    <row r="4" spans="1:47" ht="15" customHeight="1">
       <c r="A4" s="59"/>
       <c r="B4" s="53"/>
       <c r="C4" s="54"/>
@@ -54231,7 +54237,7 @@
       <c r="AT4" s="61"/>
       <c r="AU4" s="61"/>
     </row>
-    <row r="5" spans="1:47" ht="13.5" customHeight="1">
+    <row r="5" spans="1:47" ht="15" customHeight="1">
       <c r="A5" s="59"/>
       <c r="B5" s="53"/>
       <c r="C5" s="54"/>
@@ -54280,7 +54286,7 @@
       <c r="AT5" s="61"/>
       <c r="AU5" s="61"/>
     </row>
-    <row r="6" spans="1:47" ht="9.9" customHeight="1">
+    <row r="6" spans="1:47" ht="15" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
@@ -54329,7 +54335,7 @@
       <c r="AT6" s="61"/>
       <c r="AU6" s="61"/>
     </row>
-    <row r="7" spans="1:47" ht="13.5" customHeight="1">
+    <row r="7" spans="1:47" ht="15" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="53"/>
       <c r="C7" s="54"/>
@@ -54378,7 +54384,7 @@
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
     </row>
-    <row r="8" spans="1:47" ht="9.9" customHeight="1">
+    <row r="8" spans="1:47" ht="15" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="53"/>
       <c r="C8" s="54"/>
@@ -54427,56 +54433,56 @@
       <c r="AT8" s="69"/>
       <c r="AU8" s="69"/>
     </row>
-    <row r="9" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="306"/>
-      <c r="B9" s="306"/>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="306"/>
-      <c r="K9" s="306"/>
-      <c r="L9" s="306"/>
-      <c r="M9" s="306"/>
-      <c r="N9" s="306"/>
-      <c r="O9" s="306"/>
-      <c r="P9" s="306"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="306"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="306"/>
-      <c r="V9" s="306"/>
-      <c r="W9" s="306"/>
-      <c r="X9" s="306"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="306"/>
-      <c r="AA9" s="306"/>
-      <c r="AB9" s="306"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="306"/>
-      <c r="AF9" s="306"/>
-      <c r="AG9" s="306"/>
-      <c r="AH9" s="306"/>
-      <c r="AI9" s="306"/>
-      <c r="AJ9" s="306"/>
-      <c r="AK9" s="306"/>
-      <c r="AL9" s="306"/>
-      <c r="AM9" s="306"/>
-      <c r="AN9" s="306"/>
-      <c r="AO9" s="306"/>
-      <c r="AP9" s="306"/>
-      <c r="AQ9" s="306"/>
-      <c r="AR9" s="306"/>
-      <c r="AS9" s="306"/>
-      <c r="AT9" s="306"/>
-      <c r="AU9" s="306"/>
+    <row r="9" spans="1:47" s="1" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A9" s="175"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="175"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="175"/>
+      <c r="AQ9" s="175"/>
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1">
+    <row r="10" spans="1:47" ht="13.8" customHeight="1">
       <c r="A10" s="176"/>
       <c r="B10" s="176"/>
       <c r="C10" s="176"/>
@@ -54525,7 +54531,7 @@
       <c r="AT10" s="176"/>
       <c r="AU10" s="176"/>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1">
+    <row r="11" spans="1:47" ht="11.4" customHeight="1">
       <c r="A11" s="123"/>
       <c r="B11" s="126"/>
       <c r="C11" s="126"/>
@@ -54574,7 +54580,7 @@
       <c r="AT11" s="135"/>
       <c r="AU11" s="135"/>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1">
+    <row r="12" spans="1:47" ht="11.4" customHeight="1">
       <c r="A12" s="124"/>
       <c r="B12" s="127"/>
       <c r="C12" s="127"/>
@@ -54623,7 +54629,7 @@
       <c r="AT12" s="131"/>
       <c r="AU12" s="131"/>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1">
+    <row r="13" spans="1:47" ht="11.4" customHeight="1">
       <c r="A13" s="166"/>
       <c r="B13" s="167"/>
       <c r="C13" s="168"/>
@@ -54672,7 +54678,7 @@
       <c r="AT13" s="174"/>
       <c r="AU13" s="174"/>
     </row>
-    <row r="14" spans="1:47" ht="15" customHeight="1">
+    <row r="14" spans="1:47" ht="11.4" customHeight="1">
       <c r="A14" s="158"/>
       <c r="B14" s="158"/>
       <c r="C14" s="161"/>
@@ -54721,7 +54727,7 @@
       <c r="AT14" s="152"/>
       <c r="AU14" s="152"/>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1">
+    <row r="15" spans="1:47" ht="11.4" customHeight="1">
       <c r="A15" s="159"/>
       <c r="B15" s="159"/>
       <c r="C15" s="162"/>
@@ -54770,7 +54776,7 @@
       <c r="AT15" s="139"/>
       <c r="AU15" s="139"/>
     </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1">
+    <row r="16" spans="1:47" ht="11.4" customHeight="1">
       <c r="A16" s="160"/>
       <c r="B16" s="160"/>
       <c r="C16" s="163"/>
@@ -54819,7 +54825,7 @@
       <c r="AT16" s="148"/>
       <c r="AU16" s="148"/>
     </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1">
+    <row r="17" spans="1:47" ht="11.4" customHeight="1">
       <c r="A17" s="123"/>
       <c r="B17" s="123"/>
       <c r="C17" s="126"/>
@@ -54868,7 +54874,7 @@
       <c r="AT17" s="135"/>
       <c r="AU17" s="135"/>
     </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1">
+    <row r="18" spans="1:47" ht="11.4" customHeight="1">
       <c r="A18" s="124"/>
       <c r="B18" s="124"/>
       <c r="C18" s="127"/>
@@ -54917,7 +54923,7 @@
       <c r="AT18" s="131"/>
       <c r="AU18" s="131"/>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1">
+    <row r="19" spans="1:47" ht="11.4" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="124"/>
       <c r="C19" s="127"/>
@@ -54966,7 +54972,7 @@
       <c r="AT19" s="131"/>
       <c r="AU19" s="131"/>
     </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1">
+    <row r="20" spans="1:47" ht="11.4" customHeight="1">
       <c r="A20" s="96"/>
       <c r="B20" s="109"/>
       <c r="C20" s="110"/>
@@ -55015,7 +55021,7 @@
       <c r="AT20" s="106"/>
       <c r="AU20" s="106"/>
     </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1">
+    <row r="21" spans="1:47" ht="11.4" customHeight="1">
       <c r="A21" s="111"/>
       <c r="B21" s="111"/>
       <c r="C21" s="112"/>
@@ -55064,7 +55070,7 @@
       <c r="AT21" s="108"/>
       <c r="AU21" s="108"/>
     </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1">
+    <row r="22" spans="1:47" ht="11.4" customHeight="1">
       <c r="A22" s="113"/>
       <c r="B22" s="113"/>
       <c r="C22" s="114"/>
@@ -55113,7 +55119,7 @@
       <c r="AT22" s="95"/>
       <c r="AU22" s="95"/>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1">
+    <row r="23" spans="1:47" ht="11.4" customHeight="1">
       <c r="A23" s="96"/>
       <c r="B23" s="109"/>
       <c r="C23" s="110"/>
@@ -55162,7 +55168,7 @@
       <c r="AT23" s="106"/>
       <c r="AU23" s="106"/>
     </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1">
+    <row r="24" spans="1:47" ht="11.4" customHeight="1">
       <c r="A24" s="113"/>
       <c r="B24" s="113"/>
       <c r="C24" s="114"/>
@@ -55211,7 +55217,7 @@
       <c r="AT24" s="95"/>
       <c r="AU24" s="95"/>
     </row>
-    <row r="25" spans="1:47" ht="15" customHeight="1">
+    <row r="25" spans="1:47" ht="11.4" customHeight="1">
       <c r="A25" s="96"/>
       <c r="B25" s="96"/>
       <c r="C25" s="97"/>
@@ -55260,7 +55266,7 @@
       <c r="AT25" s="117"/>
       <c r="AU25" s="117"/>
     </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1">
+    <row r="26" spans="1:47" ht="11.4" customHeight="1">
       <c r="A26" s="98"/>
       <c r="B26" s="98"/>
       <c r="C26" s="99"/>
@@ -55309,7 +55315,7 @@
       <c r="AT26" s="115"/>
       <c r="AU26" s="115"/>
     </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1">
+    <row r="27" spans="1:47" ht="11.4" customHeight="1">
       <c r="A27" s="100"/>
       <c r="B27" s="100"/>
       <c r="C27" s="101"/>
@@ -55358,7 +55364,7 @@
       <c r="AT27" s="116"/>
       <c r="AU27" s="116"/>
     </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1">
+    <row r="28" spans="1:47" ht="11.4" customHeight="1">
       <c r="A28" s="96"/>
       <c r="B28" s="109"/>
       <c r="C28" s="110"/>
@@ -55407,7 +55413,7 @@
       <c r="AT28" s="106"/>
       <c r="AU28" s="106"/>
     </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1">
+    <row r="29" spans="1:47" ht="11.4" customHeight="1">
       <c r="A29" s="111"/>
       <c r="B29" s="111"/>
       <c r="C29" s="112"/>
@@ -55456,7 +55462,7 @@
       <c r="AT29" s="108"/>
       <c r="AU29" s="108"/>
     </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1">
+    <row r="30" spans="1:47" ht="11.4" customHeight="1">
       <c r="A30" s="113"/>
       <c r="B30" s="113"/>
       <c r="C30" s="114"/>
@@ -55505,9 +55511,6 @@
       <c r="AT30" s="95"/>
       <c r="AU30" s="95"/>
     </row>
-    <row r="35" ht="9.9" customHeight="1"/>
-    <row r="36" ht="9.9" customHeight="1"/>
-    <row r="37" ht="9.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="499">
     <mergeCell ref="A10:AU10"/>
@@ -56389,53 +56392,53 @@
       <c r="AU7" s="50"/>
     </row>
     <row r="8" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="175"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175"/>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="175"/>
-      <c r="AN8" s="175"/>
-      <c r="AO8" s="175"/>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
+      <c r="A8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="202"/>
+      <c r="L8" s="202"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="202"/>
+      <c r="W8" s="202"/>
+      <c r="X8" s="202"/>
+      <c r="Y8" s="202"/>
+      <c r="Z8" s="202"/>
+      <c r="AA8" s="202"/>
+      <c r="AB8" s="202"/>
+      <c r="AC8" s="202"/>
+      <c r="AD8" s="202"/>
+      <c r="AE8" s="202"/>
+      <c r="AF8" s="202"/>
+      <c r="AG8" s="202"/>
+      <c r="AH8" s="202"/>
+      <c r="AI8" s="202"/>
+      <c r="AJ8" s="202"/>
+      <c r="AK8" s="202"/>
+      <c r="AL8" s="202"/>
+      <c r="AM8" s="202"/>
+      <c r="AN8" s="202"/>
+      <c r="AO8" s="202"/>
+      <c r="AP8" s="202"/>
+      <c r="AQ8" s="202"/>
+      <c r="AR8" s="202"/>
+      <c r="AS8" s="202"/>
+      <c r="AT8" s="202"/>
+      <c r="AU8" s="202"/>
     </row>
     <row r="9" spans="1:47" ht="15" customHeight="1">
       <c r="A9" s="176"/>
@@ -60621,32 +60624,32 @@
       <c r="T1" s="48"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="238" t="s">
+      <c r="W1" s="238"/>
+      <c r="X1" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="239"/>
-      <c r="Z1" s="240"/>
-      <c r="AA1" s="240"/>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="240"/>
-      <c r="AD1" s="240"/>
-      <c r="AE1" s="240"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="240"/>
-      <c r="AH1" s="240"/>
-      <c r="AI1" s="240"/>
-      <c r="AJ1" s="240"/>
-      <c r="AK1" s="240"/>
-      <c r="AL1" s="240"/>
-      <c r="AM1" s="240"/>
-      <c r="AN1" s="240"/>
-      <c r="AO1" s="240"/>
-      <c r="AP1" s="240"/>
-      <c r="AQ1" s="240"/>
-      <c r="AR1" s="240"/>
-      <c r="AS1" s="240"/>
-      <c r="AT1" s="241"/>
+      <c r="Y1" s="240"/>
+      <c r="Z1" s="241"/>
+      <c r="AA1" s="241"/>
+      <c r="AB1" s="241"/>
+      <c r="AC1" s="241"/>
+      <c r="AD1" s="241"/>
+      <c r="AE1" s="241"/>
+      <c r="AF1" s="241"/>
+      <c r="AG1" s="241"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="241"/>
+      <c r="AJ1" s="241"/>
+      <c r="AK1" s="241"/>
+      <c r="AL1" s="241"/>
+      <c r="AM1" s="241"/>
+      <c r="AN1" s="241"/>
+      <c r="AO1" s="241"/>
+      <c r="AP1" s="241"/>
+      <c r="AQ1" s="241"/>
+      <c r="AR1" s="241"/>
+      <c r="AS1" s="241"/>
+      <c r="AT1" s="242"/>
       <c r="AU1" s="12"/>
     </row>
     <row r="2" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
@@ -60668,36 +60671,36 @@
       <c r="P2" s="58"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
-      <c r="S2" s="242"/>
-      <c r="T2" s="242"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="242"/>
-      <c r="W2" s="242"/>
-      <c r="X2" s="243" t="s">
+      <c r="S2" s="243"/>
+      <c r="T2" s="243"/>
+      <c r="U2" s="243"/>
+      <c r="V2" s="243"/>
+      <c r="W2" s="243"/>
+      <c r="X2" s="244" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="244"/>
-      <c r="Z2" s="245"/>
-      <c r="AA2" s="245"/>
-      <c r="AB2" s="245"/>
-      <c r="AC2" s="245"/>
-      <c r="AD2" s="245"/>
-      <c r="AE2" s="245"/>
-      <c r="AF2" s="245"/>
-      <c r="AG2" s="245"/>
-      <c r="AH2" s="245"/>
-      <c r="AI2" s="245"/>
-      <c r="AJ2" s="245"/>
-      <c r="AK2" s="245"/>
-      <c r="AL2" s="245"/>
-      <c r="AM2" s="245"/>
-      <c r="AN2" s="245"/>
-      <c r="AO2" s="245"/>
-      <c r="AP2" s="245"/>
-      <c r="AQ2" s="245"/>
-      <c r="AR2" s="245"/>
-      <c r="AS2" s="245"/>
-      <c r="AT2" s="246"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="246"/>
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="247"/>
       <c r="AU2" s="12"/>
     </row>
     <row r="3" spans="1:47" ht="1.5" customHeight="1" thickBot="1">
@@ -60848,53 +60851,53 @@
       <c r="AU5" s="50"/>
     </row>
     <row r="6" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
-      <c r="W6" s="175"/>
-      <c r="X6" s="175"/>
-      <c r="Y6" s="175"/>
-      <c r="Z6" s="175"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="175"/>
-      <c r="AD6" s="175"/>
-      <c r="AE6" s="175"/>
-      <c r="AF6" s="175"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="175"/>
-      <c r="AK6" s="175"/>
-      <c r="AL6" s="175"/>
-      <c r="AM6" s="175"/>
-      <c r="AN6" s="175"/>
-      <c r="AO6" s="175"/>
-      <c r="AP6" s="175"/>
-      <c r="AQ6" s="175"/>
-      <c r="AR6" s="175"/>
-      <c r="AS6" s="175"/>
-      <c r="AT6" s="175"/>
-      <c r="AU6" s="175"/>
+      <c r="A6" s="202"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
+      <c r="K6" s="202"/>
+      <c r="L6" s="202"/>
+      <c r="M6" s="202"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="202"/>
+      <c r="R6" s="202"/>
+      <c r="S6" s="202"/>
+      <c r="T6" s="202"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="202"/>
+      <c r="W6" s="202"/>
+      <c r="X6" s="202"/>
+      <c r="Y6" s="202"/>
+      <c r="Z6" s="202"/>
+      <c r="AA6" s="202"/>
+      <c r="AB6" s="202"/>
+      <c r="AC6" s="202"/>
+      <c r="AD6" s="202"/>
+      <c r="AE6" s="202"/>
+      <c r="AF6" s="202"/>
+      <c r="AG6" s="202"/>
+      <c r="AH6" s="202"/>
+      <c r="AI6" s="202"/>
+      <c r="AJ6" s="202"/>
+      <c r="AK6" s="202"/>
+      <c r="AL6" s="202"/>
+      <c r="AM6" s="202"/>
+      <c r="AN6" s="202"/>
+      <c r="AO6" s="202"/>
+      <c r="AP6" s="202"/>
+      <c r="AQ6" s="202"/>
+      <c r="AR6" s="202"/>
+      <c r="AS6" s="202"/>
+      <c r="AT6" s="202"/>
+      <c r="AU6" s="202"/>
     </row>
     <row r="7" spans="1:47" ht="15" customHeight="1">
       <c r="A7" s="176"/>
@@ -61047,99 +61050,99 @@
       <c r="A10" s="20"/>
       <c r="B10" s="39"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="207"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="207"/>
-      <c r="N10" s="206"/>
-      <c r="O10" s="207"/>
-      <c r="P10" s="206"/>
-      <c r="Q10" s="207"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="226"/>
-      <c r="T10" s="206"/>
-      <c r="U10" s="207"/>
-      <c r="V10" s="225"/>
-      <c r="W10" s="226"/>
-      <c r="X10" s="225"/>
-      <c r="Y10" s="226"/>
-      <c r="Z10" s="225"/>
-      <c r="AA10" s="226"/>
-      <c r="AB10" s="225"/>
-      <c r="AC10" s="226"/>
-      <c r="AD10" s="225"/>
-      <c r="AE10" s="226"/>
-      <c r="AF10" s="225"/>
-      <c r="AG10" s="226"/>
-      <c r="AH10" s="225"/>
-      <c r="AI10" s="226"/>
-      <c r="AJ10" s="225"/>
-      <c r="AK10" s="226"/>
-      <c r="AL10" s="225"/>
-      <c r="AM10" s="226"/>
-      <c r="AN10" s="225"/>
-      <c r="AO10" s="226"/>
-      <c r="AP10" s="206"/>
-      <c r="AQ10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="208"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="208"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="208"/>
+      <c r="P10" s="207"/>
+      <c r="Q10" s="208"/>
+      <c r="R10" s="226"/>
+      <c r="S10" s="227"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="208"/>
+      <c r="V10" s="226"/>
+      <c r="W10" s="227"/>
+      <c r="X10" s="226"/>
+      <c r="Y10" s="227"/>
+      <c r="Z10" s="226"/>
+      <c r="AA10" s="227"/>
+      <c r="AB10" s="226"/>
+      <c r="AC10" s="227"/>
+      <c r="AD10" s="226"/>
+      <c r="AE10" s="227"/>
+      <c r="AF10" s="226"/>
+      <c r="AG10" s="227"/>
+      <c r="AH10" s="226"/>
+      <c r="AI10" s="227"/>
+      <c r="AJ10" s="226"/>
+      <c r="AK10" s="227"/>
+      <c r="AL10" s="226"/>
+      <c r="AM10" s="227"/>
+      <c r="AN10" s="226"/>
+      <c r="AO10" s="227"/>
+      <c r="AP10" s="207"/>
+      <c r="AQ10" s="208"/>
       <c r="AR10" s="134"/>
       <c r="AS10" s="135"/>
       <c r="AT10" s="135"/>
       <c r="AU10" s="135"/>
     </row>
     <row r="11" spans="1:47" ht="15" customHeight="1">
-      <c r="A11" s="227"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
-      <c r="M11" s="205"/>
-      <c r="N11" s="205"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="205"/>
-      <c r="Q11" s="205"/>
-      <c r="R11" s="224"/>
-      <c r="S11" s="224"/>
-      <c r="T11" s="205"/>
-      <c r="U11" s="205"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="205"/>
-      <c r="X11" s="224"/>
-      <c r="Y11" s="224"/>
-      <c r="Z11" s="224"/>
-      <c r="AA11" s="224"/>
-      <c r="AB11" s="224"/>
-      <c r="AC11" s="224"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="224"/>
-      <c r="AF11" s="224"/>
-      <c r="AG11" s="224"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="224"/>
-      <c r="AJ11" s="224"/>
-      <c r="AK11" s="224"/>
-      <c r="AL11" s="224"/>
-      <c r="AM11" s="224"/>
-      <c r="AN11" s="224"/>
-      <c r="AO11" s="224"/>
-      <c r="AP11" s="205"/>
-      <c r="AQ11" s="205"/>
-      <c r="AR11" s="230"/>
-      <c r="AS11" s="231"/>
-      <c r="AT11" s="231"/>
-      <c r="AU11" s="231"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="230"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="206"/>
+      <c r="O11" s="206"/>
+      <c r="P11" s="206"/>
+      <c r="Q11" s="206"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="225"/>
+      <c r="T11" s="206"/>
+      <c r="U11" s="206"/>
+      <c r="V11" s="206"/>
+      <c r="W11" s="206"/>
+      <c r="X11" s="225"/>
+      <c r="Y11" s="225"/>
+      <c r="Z11" s="225"/>
+      <c r="AA11" s="225"/>
+      <c r="AB11" s="225"/>
+      <c r="AC11" s="225"/>
+      <c r="AD11" s="225"/>
+      <c r="AE11" s="225"/>
+      <c r="AF11" s="225"/>
+      <c r="AG11" s="225"/>
+      <c r="AH11" s="225"/>
+      <c r="AI11" s="225"/>
+      <c r="AJ11" s="225"/>
+      <c r="AK11" s="225"/>
+      <c r="AL11" s="225"/>
+      <c r="AM11" s="225"/>
+      <c r="AN11" s="225"/>
+      <c r="AO11" s="225"/>
+      <c r="AP11" s="206"/>
+      <c r="AQ11" s="206"/>
+      <c r="AR11" s="231"/>
+      <c r="AS11" s="232"/>
+      <c r="AT11" s="232"/>
+      <c r="AU11" s="232"/>
     </row>
     <row r="12" spans="1:47" ht="15" customHeight="1">
       <c r="A12" s="98"/>
@@ -61439,99 +61442,99 @@
       <c r="A18" s="20"/>
       <c r="B18" s="35"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="206"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="206"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="206"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="206"/>
-      <c r="Q18" s="207"/>
-      <c r="R18" s="225"/>
-      <c r="S18" s="226"/>
-      <c r="T18" s="206"/>
-      <c r="U18" s="207"/>
-      <c r="V18" s="225"/>
-      <c r="W18" s="226"/>
-      <c r="X18" s="225"/>
-      <c r="Y18" s="226"/>
-      <c r="Z18" s="225"/>
-      <c r="AA18" s="226"/>
-      <c r="AB18" s="225"/>
-      <c r="AC18" s="226"/>
-      <c r="AD18" s="225"/>
-      <c r="AE18" s="226"/>
-      <c r="AF18" s="225"/>
-      <c r="AG18" s="226"/>
-      <c r="AH18" s="225"/>
-      <c r="AI18" s="226"/>
-      <c r="AJ18" s="225"/>
-      <c r="AK18" s="226"/>
-      <c r="AL18" s="225"/>
-      <c r="AM18" s="226"/>
-      <c r="AN18" s="225"/>
-      <c r="AO18" s="226"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="207"/>
+      <c r="D18" s="207"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="207"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="207"/>
+      <c r="K18" s="208"/>
+      <c r="L18" s="207"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="207"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="207"/>
+      <c r="Q18" s="208"/>
+      <c r="R18" s="226"/>
+      <c r="S18" s="227"/>
+      <c r="T18" s="207"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="226"/>
+      <c r="W18" s="227"/>
+      <c r="X18" s="226"/>
+      <c r="Y18" s="227"/>
+      <c r="Z18" s="226"/>
+      <c r="AA18" s="227"/>
+      <c r="AB18" s="226"/>
+      <c r="AC18" s="227"/>
+      <c r="AD18" s="226"/>
+      <c r="AE18" s="227"/>
+      <c r="AF18" s="226"/>
+      <c r="AG18" s="227"/>
+      <c r="AH18" s="226"/>
+      <c r="AI18" s="227"/>
+      <c r="AJ18" s="226"/>
+      <c r="AK18" s="227"/>
+      <c r="AL18" s="226"/>
+      <c r="AM18" s="227"/>
+      <c r="AN18" s="226"/>
+      <c r="AO18" s="227"/>
+      <c r="AP18" s="207"/>
+      <c r="AQ18" s="208"/>
       <c r="AR18" s="134"/>
       <c r="AS18" s="135"/>
       <c r="AT18" s="135"/>
       <c r="AU18" s="135"/>
     </row>
     <row r="19" spans="1:47" ht="15" customHeight="1">
-      <c r="A19" s="227"/>
-      <c r="B19" s="228"/>
-      <c r="C19" s="229"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="205"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="205"/>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="205"/>
-      <c r="R19" s="205"/>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="205"/>
-      <c r="V19" s="224"/>
-      <c r="W19" s="224"/>
-      <c r="X19" s="224"/>
-      <c r="Y19" s="224"/>
-      <c r="Z19" s="224"/>
-      <c r="AA19" s="224"/>
-      <c r="AB19" s="224"/>
-      <c r="AC19" s="224"/>
-      <c r="AD19" s="224"/>
-      <c r="AE19" s="224"/>
-      <c r="AF19" s="224"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="224"/>
-      <c r="AI19" s="224"/>
-      <c r="AJ19" s="224"/>
-      <c r="AK19" s="224"/>
-      <c r="AL19" s="224"/>
-      <c r="AM19" s="224"/>
-      <c r="AN19" s="224"/>
-      <c r="AO19" s="224"/>
-      <c r="AP19" s="205"/>
-      <c r="AQ19" s="205"/>
-      <c r="AR19" s="230"/>
-      <c r="AS19" s="231"/>
-      <c r="AT19" s="231"/>
-      <c r="AU19" s="231"/>
+      <c r="A19" s="228"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="206"/>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="206"/>
+      <c r="S19" s="206"/>
+      <c r="T19" s="206"/>
+      <c r="U19" s="206"/>
+      <c r="V19" s="225"/>
+      <c r="W19" s="225"/>
+      <c r="X19" s="225"/>
+      <c r="Y19" s="225"/>
+      <c r="Z19" s="225"/>
+      <c r="AA19" s="225"/>
+      <c r="AB19" s="225"/>
+      <c r="AC19" s="225"/>
+      <c r="AD19" s="225"/>
+      <c r="AE19" s="225"/>
+      <c r="AF19" s="225"/>
+      <c r="AG19" s="225"/>
+      <c r="AH19" s="225"/>
+      <c r="AI19" s="225"/>
+      <c r="AJ19" s="225"/>
+      <c r="AK19" s="225"/>
+      <c r="AL19" s="225"/>
+      <c r="AM19" s="225"/>
+      <c r="AN19" s="225"/>
+      <c r="AO19" s="225"/>
+      <c r="AP19" s="206"/>
+      <c r="AQ19" s="206"/>
+      <c r="AR19" s="231"/>
+      <c r="AS19" s="232"/>
+      <c r="AT19" s="232"/>
+      <c r="AU19" s="232"/>
     </row>
     <row r="20" spans="1:47" ht="15" customHeight="1">
       <c r="A20" s="98"/>
@@ -61632,53 +61635,53 @@
       <c r="AU21" s="108"/>
     </row>
     <row r="22" spans="1:47" ht="15" customHeight="1">
-      <c r="A22" s="227"/>
-      <c r="B22" s="227"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="234"/>
-      <c r="H22" s="230"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="230"/>
-      <c r="K22" s="234"/>
-      <c r="L22" s="230"/>
-      <c r="M22" s="234"/>
-      <c r="N22" s="230"/>
-      <c r="O22" s="234"/>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="234"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="234"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="234"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="234"/>
-      <c r="X22" s="232"/>
-      <c r="Y22" s="233"/>
-      <c r="Z22" s="232"/>
-      <c r="AA22" s="233"/>
-      <c r="AB22" s="232"/>
-      <c r="AC22" s="233"/>
-      <c r="AD22" s="232"/>
-      <c r="AE22" s="233"/>
-      <c r="AF22" s="232"/>
-      <c r="AG22" s="233"/>
-      <c r="AH22" s="232"/>
-      <c r="AI22" s="233"/>
-      <c r="AJ22" s="232"/>
-      <c r="AK22" s="233"/>
-      <c r="AL22" s="232"/>
-      <c r="AM22" s="233"/>
-      <c r="AN22" s="232"/>
-      <c r="AO22" s="233"/>
-      <c r="AP22" s="230"/>
-      <c r="AQ22" s="234"/>
-      <c r="AR22" s="230"/>
-      <c r="AS22" s="235"/>
-      <c r="AT22" s="235"/>
-      <c r="AU22" s="235"/>
+      <c r="A22" s="228"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="237"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="235"/>
+      <c r="J22" s="231"/>
+      <c r="K22" s="235"/>
+      <c r="L22" s="231"/>
+      <c r="M22" s="235"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="235"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="231"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="235"/>
+      <c r="V22" s="231"/>
+      <c r="W22" s="235"/>
+      <c r="X22" s="233"/>
+      <c r="Y22" s="234"/>
+      <c r="Z22" s="233"/>
+      <c r="AA22" s="234"/>
+      <c r="AB22" s="233"/>
+      <c r="AC22" s="234"/>
+      <c r="AD22" s="233"/>
+      <c r="AE22" s="234"/>
+      <c r="AF22" s="233"/>
+      <c r="AG22" s="234"/>
+      <c r="AH22" s="233"/>
+      <c r="AI22" s="234"/>
+      <c r="AJ22" s="233"/>
+      <c r="AK22" s="234"/>
+      <c r="AL22" s="233"/>
+      <c r="AM22" s="234"/>
+      <c r="AN22" s="233"/>
+      <c r="AO22" s="234"/>
+      <c r="AP22" s="231"/>
+      <c r="AQ22" s="235"/>
+      <c r="AR22" s="231"/>
+      <c r="AS22" s="236"/>
+      <c r="AT22" s="236"/>
+      <c r="AU22" s="236"/>
     </row>
     <row r="23" spans="1:47" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="176"/>
@@ -61880,8 +61883,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="35"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="206"/>
-      <c r="E27" s="207"/>
+      <c r="D27" s="207"/>
+      <c r="E27" s="208"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
@@ -61890,89 +61893,89 @@
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
-      <c r="N27" s="206"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="206"/>
-      <c r="Q27" s="207"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="206"/>
-      <c r="U27" s="207"/>
-      <c r="V27" s="225"/>
-      <c r="W27" s="226"/>
-      <c r="X27" s="225"/>
-      <c r="Y27" s="226"/>
-      <c r="Z27" s="225"/>
-      <c r="AA27" s="226"/>
-      <c r="AB27" s="225"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="225"/>
-      <c r="AE27" s="226"/>
-      <c r="AF27" s="225"/>
-      <c r="AG27" s="226"/>
-      <c r="AH27" s="225"/>
-      <c r="AI27" s="226"/>
-      <c r="AJ27" s="225"/>
-      <c r="AK27" s="226"/>
-      <c r="AL27" s="225"/>
-      <c r="AM27" s="226"/>
-      <c r="AN27" s="225"/>
-      <c r="AO27" s="226"/>
-      <c r="AP27" s="206"/>
-      <c r="AQ27" s="207"/>
+      <c r="N27" s="207"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="207"/>
+      <c r="Q27" s="208"/>
+      <c r="R27" s="226"/>
+      <c r="S27" s="227"/>
+      <c r="T27" s="207"/>
+      <c r="U27" s="208"/>
+      <c r="V27" s="226"/>
+      <c r="W27" s="227"/>
+      <c r="X27" s="226"/>
+      <c r="Y27" s="227"/>
+      <c r="Z27" s="226"/>
+      <c r="AA27" s="227"/>
+      <c r="AB27" s="226"/>
+      <c r="AC27" s="227"/>
+      <c r="AD27" s="226"/>
+      <c r="AE27" s="227"/>
+      <c r="AF27" s="226"/>
+      <c r="AG27" s="227"/>
+      <c r="AH27" s="226"/>
+      <c r="AI27" s="227"/>
+      <c r="AJ27" s="226"/>
+      <c r="AK27" s="227"/>
+      <c r="AL27" s="226"/>
+      <c r="AM27" s="227"/>
+      <c r="AN27" s="226"/>
+      <c r="AO27" s="227"/>
+      <c r="AP27" s="207"/>
+      <c r="AQ27" s="208"/>
       <c r="AR27" s="134"/>
       <c r="AS27" s="135"/>
       <c r="AT27" s="135"/>
       <c r="AU27" s="135"/>
     </row>
     <row r="28" spans="1:47" ht="15" customHeight="1">
-      <c r="A28" s="227"/>
-      <c r="B28" s="228"/>
-      <c r="C28" s="229"/>
-      <c r="D28" s="205"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="205"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="205"/>
-      <c r="J28" s="205"/>
-      <c r="K28" s="205"/>
-      <c r="L28" s="205"/>
-      <c r="M28" s="205"/>
-      <c r="N28" s="205"/>
-      <c r="O28" s="205"/>
-      <c r="P28" s="205"/>
-      <c r="Q28" s="205"/>
-      <c r="R28" s="205"/>
-      <c r="S28" s="205"/>
-      <c r="T28" s="205"/>
-      <c r="U28" s="205"/>
-      <c r="V28" s="205"/>
-      <c r="W28" s="205"/>
-      <c r="X28" s="224"/>
-      <c r="Y28" s="224"/>
-      <c r="Z28" s="224"/>
-      <c r="AA28" s="224"/>
-      <c r="AB28" s="224"/>
-      <c r="AC28" s="224"/>
-      <c r="AD28" s="224"/>
-      <c r="AE28" s="224"/>
-      <c r="AF28" s="224"/>
-      <c r="AG28" s="224"/>
-      <c r="AH28" s="224"/>
-      <c r="AI28" s="224"/>
-      <c r="AJ28" s="224"/>
-      <c r="AK28" s="224"/>
-      <c r="AL28" s="224"/>
-      <c r="AM28" s="224"/>
-      <c r="AN28" s="224"/>
-      <c r="AO28" s="224"/>
-      <c r="AP28" s="205"/>
-      <c r="AQ28" s="205"/>
-      <c r="AR28" s="230"/>
-      <c r="AS28" s="231"/>
-      <c r="AT28" s="231"/>
-      <c r="AU28" s="231"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="206"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
+      <c r="N28" s="206"/>
+      <c r="O28" s="206"/>
+      <c r="P28" s="206"/>
+      <c r="Q28" s="206"/>
+      <c r="R28" s="206"/>
+      <c r="S28" s="206"/>
+      <c r="T28" s="206"/>
+      <c r="U28" s="206"/>
+      <c r="V28" s="206"/>
+      <c r="W28" s="206"/>
+      <c r="X28" s="225"/>
+      <c r="Y28" s="225"/>
+      <c r="Z28" s="225"/>
+      <c r="AA28" s="225"/>
+      <c r="AB28" s="225"/>
+      <c r="AC28" s="225"/>
+      <c r="AD28" s="225"/>
+      <c r="AE28" s="225"/>
+      <c r="AF28" s="225"/>
+      <c r="AG28" s="225"/>
+      <c r="AH28" s="225"/>
+      <c r="AI28" s="225"/>
+      <c r="AJ28" s="225"/>
+      <c r="AK28" s="225"/>
+      <c r="AL28" s="225"/>
+      <c r="AM28" s="225"/>
+      <c r="AN28" s="225"/>
+      <c r="AO28" s="225"/>
+      <c r="AP28" s="206"/>
+      <c r="AQ28" s="206"/>
+      <c r="AR28" s="231"/>
+      <c r="AS28" s="232"/>
+      <c r="AT28" s="232"/>
+      <c r="AU28" s="232"/>
     </row>
     <row r="29" spans="1:47" ht="15" customHeight="1">
       <c r="A29" s="98"/>
@@ -62073,347 +62076,347 @@
       <c r="AU30" s="108"/>
     </row>
     <row r="31" spans="1:47" ht="15" customHeight="1">
-      <c r="A31" s="217"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="219"/>
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="202"/>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="202"/>
-      <c r="L31" s="202"/>
-      <c r="M31" s="202"/>
-      <c r="N31" s="202"/>
-      <c r="O31" s="202"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="202"/>
-      <c r="R31" s="202"/>
-      <c r="S31" s="202"/>
-      <c r="T31" s="202"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="202"/>
-      <c r="W31" s="202"/>
-      <c r="X31" s="215"/>
-      <c r="Y31" s="216"/>
-      <c r="Z31" s="215"/>
-      <c r="AA31" s="216"/>
-      <c r="AB31" s="215"/>
-      <c r="AC31" s="216"/>
-      <c r="AD31" s="215"/>
-      <c r="AE31" s="216"/>
-      <c r="AF31" s="215"/>
-      <c r="AG31" s="216"/>
-      <c r="AH31" s="215"/>
-      <c r="AI31" s="216"/>
-      <c r="AJ31" s="215"/>
-      <c r="AK31" s="216"/>
-      <c r="AL31" s="215"/>
-      <c r="AM31" s="216"/>
-      <c r="AN31" s="215"/>
-      <c r="AO31" s="216"/>
-      <c r="AP31" s="202"/>
-      <c r="AQ31" s="202"/>
-      <c r="AR31" s="220"/>
-      <c r="AS31" s="221"/>
-      <c r="AT31" s="221"/>
-      <c r="AU31" s="221"/>
+      <c r="A31" s="218"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="203"/>
+      <c r="L31" s="203"/>
+      <c r="M31" s="203"/>
+      <c r="N31" s="203"/>
+      <c r="O31" s="203"/>
+      <c r="P31" s="203"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="203"/>
+      <c r="S31" s="203"/>
+      <c r="T31" s="203"/>
+      <c r="U31" s="203"/>
+      <c r="V31" s="203"/>
+      <c r="W31" s="203"/>
+      <c r="X31" s="216"/>
+      <c r="Y31" s="217"/>
+      <c r="Z31" s="216"/>
+      <c r="AA31" s="217"/>
+      <c r="AB31" s="216"/>
+      <c r="AC31" s="217"/>
+      <c r="AD31" s="216"/>
+      <c r="AE31" s="217"/>
+      <c r="AF31" s="216"/>
+      <c r="AG31" s="217"/>
+      <c r="AH31" s="216"/>
+      <c r="AI31" s="217"/>
+      <c r="AJ31" s="216"/>
+      <c r="AK31" s="217"/>
+      <c r="AL31" s="216"/>
+      <c r="AM31" s="217"/>
+      <c r="AN31" s="216"/>
+      <c r="AO31" s="217"/>
+      <c r="AP31" s="203"/>
+      <c r="AQ31" s="203"/>
+      <c r="AR31" s="221"/>
+      <c r="AS31" s="222"/>
+      <c r="AT31" s="222"/>
+      <c r="AU31" s="222"/>
     </row>
     <row r="32" spans="1:47" ht="15" customHeight="1">
-      <c r="A32" s="212"/>
-      <c r="B32" s="213"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="204"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="204"/>
-      <c r="H32" s="204"/>
-      <c r="I32" s="204"/>
-      <c r="J32" s="204"/>
-      <c r="K32" s="204"/>
-      <c r="L32" s="204"/>
-      <c r="M32" s="204"/>
-      <c r="N32" s="204"/>
-      <c r="O32" s="204"/>
-      <c r="P32" s="204"/>
-      <c r="Q32" s="204"/>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="204"/>
-      <c r="U32" s="204"/>
-      <c r="V32" s="204"/>
-      <c r="W32" s="204"/>
-      <c r="X32" s="222"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="222"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="223"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-      <c r="AF32" s="222"/>
-      <c r="AG32" s="223"/>
-      <c r="AH32" s="222"/>
-      <c r="AI32" s="223"/>
-      <c r="AJ32" s="222"/>
-      <c r="AK32" s="223"/>
-      <c r="AL32" s="222"/>
-      <c r="AM32" s="223"/>
-      <c r="AN32" s="222"/>
-      <c r="AO32" s="223"/>
-      <c r="AP32" s="204"/>
-      <c r="AQ32" s="204"/>
-      <c r="AR32" s="210"/>
-      <c r="AS32" s="211"/>
-      <c r="AT32" s="211"/>
-      <c r="AU32" s="211"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="205"/>
+      <c r="K32" s="205"/>
+      <c r="L32" s="205"/>
+      <c r="M32" s="205"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="205"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="223"/>
+      <c r="Y32" s="224"/>
+      <c r="Z32" s="223"/>
+      <c r="AA32" s="224"/>
+      <c r="AB32" s="223"/>
+      <c r="AC32" s="224"/>
+      <c r="AD32" s="223"/>
+      <c r="AE32" s="224"/>
+      <c r="AF32" s="223"/>
+      <c r="AG32" s="224"/>
+      <c r="AH32" s="223"/>
+      <c r="AI32" s="224"/>
+      <c r="AJ32" s="223"/>
+      <c r="AK32" s="224"/>
+      <c r="AL32" s="223"/>
+      <c r="AM32" s="224"/>
+      <c r="AN32" s="223"/>
+      <c r="AO32" s="224"/>
+      <c r="AP32" s="205"/>
+      <c r="AQ32" s="205"/>
+      <c r="AR32" s="211"/>
+      <c r="AS32" s="212"/>
+      <c r="AT32" s="212"/>
+      <c r="AU32" s="212"/>
     </row>
     <row r="33" spans="1:47" ht="15" customHeight="1">
-      <c r="A33" s="217"/>
-      <c r="B33" s="218"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
-      <c r="N33" s="202"/>
-      <c r="O33" s="202"/>
-      <c r="P33" s="202"/>
-      <c r="Q33" s="202"/>
-      <c r="R33" s="202"/>
-      <c r="S33" s="202"/>
-      <c r="T33" s="202"/>
-      <c r="U33" s="202"/>
-      <c r="V33" s="202"/>
-      <c r="W33" s="202"/>
-      <c r="X33" s="215"/>
-      <c r="Y33" s="216"/>
-      <c r="Z33" s="215"/>
-      <c r="AA33" s="216"/>
-      <c r="AB33" s="215"/>
-      <c r="AC33" s="216"/>
-      <c r="AD33" s="215"/>
-      <c r="AE33" s="216"/>
-      <c r="AF33" s="215"/>
-      <c r="AG33" s="216"/>
-      <c r="AH33" s="215"/>
-      <c r="AI33" s="216"/>
-      <c r="AJ33" s="215"/>
-      <c r="AK33" s="216"/>
-      <c r="AL33" s="215"/>
-      <c r="AM33" s="216"/>
-      <c r="AN33" s="215"/>
-      <c r="AO33" s="216"/>
-      <c r="AP33" s="202"/>
-      <c r="AQ33" s="202"/>
-      <c r="AR33" s="220"/>
-      <c r="AS33" s="221"/>
-      <c r="AT33" s="221"/>
-      <c r="AU33" s="221"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="203"/>
+      <c r="M33" s="203"/>
+      <c r="N33" s="203"/>
+      <c r="O33" s="203"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="203"/>
+      <c r="S33" s="203"/>
+      <c r="T33" s="203"/>
+      <c r="U33" s="203"/>
+      <c r="V33" s="203"/>
+      <c r="W33" s="203"/>
+      <c r="X33" s="216"/>
+      <c r="Y33" s="217"/>
+      <c r="Z33" s="216"/>
+      <c r="AA33" s="217"/>
+      <c r="AB33" s="216"/>
+      <c r="AC33" s="217"/>
+      <c r="AD33" s="216"/>
+      <c r="AE33" s="217"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="217"/>
+      <c r="AH33" s="216"/>
+      <c r="AI33" s="217"/>
+      <c r="AJ33" s="216"/>
+      <c r="AK33" s="217"/>
+      <c r="AL33" s="216"/>
+      <c r="AM33" s="217"/>
+      <c r="AN33" s="216"/>
+      <c r="AO33" s="217"/>
+      <c r="AP33" s="203"/>
+      <c r="AQ33" s="203"/>
+      <c r="AR33" s="221"/>
+      <c r="AS33" s="222"/>
+      <c r="AT33" s="222"/>
+      <c r="AU33" s="222"/>
     </row>
     <row r="34" spans="1:47" ht="15" customHeight="1">
-      <c r="A34" s="212"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
-      <c r="G34" s="204"/>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="204"/>
-      <c r="L34" s="204"/>
-      <c r="M34" s="204"/>
-      <c r="N34" s="204"/>
-      <c r="O34" s="204"/>
-      <c r="P34" s="204"/>
-      <c r="Q34" s="204"/>
-      <c r="R34" s="204"/>
-      <c r="S34" s="204"/>
-      <c r="T34" s="204"/>
-      <c r="U34" s="204"/>
-      <c r="V34" s="204"/>
-      <c r="W34" s="204"/>
-      <c r="X34" s="222"/>
-      <c r="Y34" s="223"/>
-      <c r="Z34" s="222"/>
-      <c r="AA34" s="223"/>
-      <c r="AB34" s="222"/>
-      <c r="AC34" s="223"/>
-      <c r="AD34" s="222"/>
-      <c r="AE34" s="223"/>
-      <c r="AF34" s="222"/>
-      <c r="AG34" s="223"/>
-      <c r="AH34" s="222"/>
-      <c r="AI34" s="223"/>
-      <c r="AJ34" s="222"/>
-      <c r="AK34" s="223"/>
-      <c r="AL34" s="222"/>
-      <c r="AM34" s="223"/>
-      <c r="AN34" s="222"/>
-      <c r="AO34" s="223"/>
-      <c r="AP34" s="204"/>
-      <c r="AQ34" s="204"/>
-      <c r="AR34" s="210"/>
-      <c r="AS34" s="211"/>
-      <c r="AT34" s="211"/>
-      <c r="AU34" s="211"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="205"/>
+      <c r="M34" s="205"/>
+      <c r="N34" s="205"/>
+      <c r="O34" s="205"/>
+      <c r="P34" s="205"/>
+      <c r="Q34" s="205"/>
+      <c r="R34" s="205"/>
+      <c r="S34" s="205"/>
+      <c r="T34" s="205"/>
+      <c r="U34" s="205"/>
+      <c r="V34" s="205"/>
+      <c r="W34" s="205"/>
+      <c r="X34" s="223"/>
+      <c r="Y34" s="224"/>
+      <c r="Z34" s="223"/>
+      <c r="AA34" s="224"/>
+      <c r="AB34" s="223"/>
+      <c r="AC34" s="224"/>
+      <c r="AD34" s="223"/>
+      <c r="AE34" s="224"/>
+      <c r="AF34" s="223"/>
+      <c r="AG34" s="224"/>
+      <c r="AH34" s="223"/>
+      <c r="AI34" s="224"/>
+      <c r="AJ34" s="223"/>
+      <c r="AK34" s="224"/>
+      <c r="AL34" s="223"/>
+      <c r="AM34" s="224"/>
+      <c r="AN34" s="223"/>
+      <c r="AO34" s="224"/>
+      <c r="AP34" s="205"/>
+      <c r="AQ34" s="205"/>
+      <c r="AR34" s="211"/>
+      <c r="AS34" s="212"/>
+      <c r="AT34" s="212"/>
+      <c r="AU34" s="212"/>
     </row>
     <row r="35" spans="1:47" ht="15" customHeight="1">
-      <c r="A35" s="217"/>
-      <c r="B35" s="218"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="202"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="202"/>
-      <c r="G35" s="202"/>
-      <c r="H35" s="202"/>
-      <c r="I35" s="202"/>
-      <c r="J35" s="202"/>
-      <c r="K35" s="202"/>
-      <c r="L35" s="202"/>
-      <c r="M35" s="202"/>
-      <c r="N35" s="202"/>
-      <c r="O35" s="202"/>
-      <c r="P35" s="202"/>
-      <c r="Q35" s="202"/>
-      <c r="R35" s="202"/>
-      <c r="S35" s="202"/>
-      <c r="T35" s="202"/>
-      <c r="U35" s="202"/>
-      <c r="V35" s="202"/>
-      <c r="W35" s="202"/>
-      <c r="X35" s="215"/>
-      <c r="Y35" s="216"/>
-      <c r="Z35" s="215"/>
-      <c r="AA35" s="216"/>
-      <c r="AB35" s="215"/>
-      <c r="AC35" s="216"/>
-      <c r="AD35" s="215"/>
-      <c r="AE35" s="216"/>
-      <c r="AF35" s="215"/>
-      <c r="AG35" s="216"/>
-      <c r="AH35" s="215"/>
-      <c r="AI35" s="216"/>
-      <c r="AJ35" s="215"/>
-      <c r="AK35" s="216"/>
-      <c r="AL35" s="215"/>
-      <c r="AM35" s="216"/>
-      <c r="AN35" s="215"/>
-      <c r="AO35" s="216"/>
-      <c r="AP35" s="202"/>
-      <c r="AQ35" s="202"/>
-      <c r="AR35" s="220"/>
-      <c r="AS35" s="221"/>
-      <c r="AT35" s="221"/>
-      <c r="AU35" s="221"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="203"/>
+      <c r="O35" s="203"/>
+      <c r="P35" s="203"/>
+      <c r="Q35" s="203"/>
+      <c r="R35" s="203"/>
+      <c r="S35" s="203"/>
+      <c r="T35" s="203"/>
+      <c r="U35" s="203"/>
+      <c r="V35" s="203"/>
+      <c r="W35" s="203"/>
+      <c r="X35" s="216"/>
+      <c r="Y35" s="217"/>
+      <c r="Z35" s="216"/>
+      <c r="AA35" s="217"/>
+      <c r="AB35" s="216"/>
+      <c r="AC35" s="217"/>
+      <c r="AD35" s="216"/>
+      <c r="AE35" s="217"/>
+      <c r="AF35" s="216"/>
+      <c r="AG35" s="217"/>
+      <c r="AH35" s="216"/>
+      <c r="AI35" s="217"/>
+      <c r="AJ35" s="216"/>
+      <c r="AK35" s="217"/>
+      <c r="AL35" s="216"/>
+      <c r="AM35" s="217"/>
+      <c r="AN35" s="216"/>
+      <c r="AO35" s="217"/>
+      <c r="AP35" s="203"/>
+      <c r="AQ35" s="203"/>
+      <c r="AR35" s="221"/>
+      <c r="AS35" s="222"/>
+      <c r="AT35" s="222"/>
+      <c r="AU35" s="222"/>
     </row>
     <row r="36" spans="1:47" ht="15" customHeight="1">
-      <c r="A36" s="217"/>
-      <c r="B36" s="218"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="202"/>
-      <c r="G36" s="202"/>
-      <c r="H36" s="202"/>
-      <c r="I36" s="202"/>
-      <c r="J36" s="202"/>
-      <c r="K36" s="202"/>
-      <c r="L36" s="202"/>
-      <c r="M36" s="202"/>
-      <c r="N36" s="202"/>
-      <c r="O36" s="202"/>
-      <c r="P36" s="202"/>
-      <c r="Q36" s="202"/>
-      <c r="R36" s="202"/>
-      <c r="S36" s="202"/>
-      <c r="T36" s="202"/>
-      <c r="U36" s="202"/>
-      <c r="V36" s="202"/>
-      <c r="W36" s="202"/>
-      <c r="X36" s="215"/>
-      <c r="Y36" s="216"/>
-      <c r="Z36" s="215"/>
-      <c r="AA36" s="216"/>
-      <c r="AB36" s="215"/>
-      <c r="AC36" s="216"/>
-      <c r="AD36" s="215"/>
-      <c r="AE36" s="216"/>
-      <c r="AF36" s="215"/>
-      <c r="AG36" s="216"/>
-      <c r="AH36" s="215"/>
-      <c r="AI36" s="216"/>
-      <c r="AJ36" s="215"/>
-      <c r="AK36" s="216"/>
-      <c r="AL36" s="215"/>
-      <c r="AM36" s="216"/>
-      <c r="AN36" s="215"/>
-      <c r="AO36" s="216"/>
-      <c r="AP36" s="202"/>
-      <c r="AQ36" s="202"/>
-      <c r="AR36" s="220"/>
-      <c r="AS36" s="221"/>
-      <c r="AT36" s="221"/>
-      <c r="AU36" s="221"/>
+      <c r="A36" s="218"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="203"/>
+      <c r="K36" s="203"/>
+      <c r="L36" s="203"/>
+      <c r="M36" s="203"/>
+      <c r="N36" s="203"/>
+      <c r="O36" s="203"/>
+      <c r="P36" s="203"/>
+      <c r="Q36" s="203"/>
+      <c r="R36" s="203"/>
+      <c r="S36" s="203"/>
+      <c r="T36" s="203"/>
+      <c r="U36" s="203"/>
+      <c r="V36" s="203"/>
+      <c r="W36" s="203"/>
+      <c r="X36" s="216"/>
+      <c r="Y36" s="217"/>
+      <c r="Z36" s="216"/>
+      <c r="AA36" s="217"/>
+      <c r="AB36" s="216"/>
+      <c r="AC36" s="217"/>
+      <c r="AD36" s="216"/>
+      <c r="AE36" s="217"/>
+      <c r="AF36" s="216"/>
+      <c r="AG36" s="217"/>
+      <c r="AH36" s="216"/>
+      <c r="AI36" s="217"/>
+      <c r="AJ36" s="216"/>
+      <c r="AK36" s="217"/>
+      <c r="AL36" s="216"/>
+      <c r="AM36" s="217"/>
+      <c r="AN36" s="216"/>
+      <c r="AO36" s="217"/>
+      <c r="AP36" s="203"/>
+      <c r="AQ36" s="203"/>
+      <c r="AR36" s="221"/>
+      <c r="AS36" s="222"/>
+      <c r="AT36" s="222"/>
+      <c r="AU36" s="222"/>
     </row>
     <row r="37" spans="1:47" ht="15" customHeight="1">
-      <c r="A37" s="212"/>
-      <c r="B37" s="213"/>
-      <c r="C37" s="214"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="203"/>
-      <c r="K37" s="203"/>
-      <c r="L37" s="203"/>
-      <c r="M37" s="203"/>
-      <c r="N37" s="203"/>
-      <c r="O37" s="203"/>
-      <c r="P37" s="203"/>
-      <c r="Q37" s="203"/>
-      <c r="R37" s="203"/>
-      <c r="S37" s="203"/>
-      <c r="T37" s="203"/>
-      <c r="U37" s="203"/>
-      <c r="V37" s="203"/>
-      <c r="W37" s="203"/>
-      <c r="X37" s="208"/>
-      <c r="Y37" s="209"/>
-      <c r="Z37" s="208"/>
-      <c r="AA37" s="209"/>
-      <c r="AB37" s="208"/>
-      <c r="AC37" s="209"/>
-      <c r="AD37" s="208"/>
-      <c r="AE37" s="209"/>
-      <c r="AF37" s="208"/>
-      <c r="AG37" s="209"/>
-      <c r="AH37" s="208"/>
-      <c r="AI37" s="209"/>
-      <c r="AJ37" s="208"/>
-      <c r="AK37" s="209"/>
-      <c r="AL37" s="208"/>
-      <c r="AM37" s="209"/>
-      <c r="AN37" s="208"/>
-      <c r="AO37" s="209"/>
-      <c r="AP37" s="203"/>
-      <c r="AQ37" s="203"/>
-      <c r="AR37" s="210"/>
-      <c r="AS37" s="211"/>
-      <c r="AT37" s="211"/>
-      <c r="AU37" s="211"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="214"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="204"/>
+      <c r="L37" s="204"/>
+      <c r="M37" s="204"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="204"/>
+      <c r="P37" s="204"/>
+      <c r="Q37" s="204"/>
+      <c r="R37" s="204"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="204"/>
+      <c r="U37" s="204"/>
+      <c r="V37" s="204"/>
+      <c r="W37" s="204"/>
+      <c r="X37" s="209"/>
+      <c r="Y37" s="210"/>
+      <c r="Z37" s="209"/>
+      <c r="AA37" s="210"/>
+      <c r="AB37" s="209"/>
+      <c r="AC37" s="210"/>
+      <c r="AD37" s="209"/>
+      <c r="AE37" s="210"/>
+      <c r="AF37" s="209"/>
+      <c r="AG37" s="210"/>
+      <c r="AH37" s="209"/>
+      <c r="AI37" s="210"/>
+      <c r="AJ37" s="209"/>
+      <c r="AK37" s="210"/>
+      <c r="AL37" s="209"/>
+      <c r="AM37" s="210"/>
+      <c r="AN37" s="209"/>
+      <c r="AO37" s="210"/>
+      <c r="AP37" s="204"/>
+      <c r="AQ37" s="204"/>
+      <c r="AR37" s="211"/>
+      <c r="AS37" s="212"/>
+      <c r="AT37" s="212"/>
+      <c r="AU37" s="212"/>
     </row>
     <row r="39" spans="1:47" ht="9.9" customHeight="1"/>
     <row r="40" spans="1:47" ht="9.9" customHeight="1"/>
